--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5509,7 +5509,9 @@
       <c r="C116" t="n">
         <v>-0.39</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -5520,7 +5522,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.01</v>
+        <v>-0.22</v>
       </c>
     </row>
   </sheetData>
@@ -10555,7 +10557,9 @@
       <c r="C116" t="n">
         <v>0.23</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.43</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -10566,7 +10570,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.13</v>
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -15681,7 +15685,9 @@
       <c r="C116" t="n">
         <v>0.71</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.09</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -15692,7 +15698,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.68</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -20807,7 +20813,9 @@
       <c r="C116" t="n">
         <v>1.08</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.27</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -20818,7 +20826,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.12</v>
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -25839,7 +25847,9 @@
       <c r="C116" t="n">
         <v>1.96</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.12</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -25850,7 +25860,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>2.66</v>
+        <v>1.81</v>
       </c>
     </row>
   </sheetData>
@@ -30965,7 +30975,9 @@
       <c r="C116" t="n">
         <v>1.6</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.21</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -30976,7 +30988,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.27</v>
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -36091,7 +36103,9 @@
       <c r="C116" t="n">
         <v>2.41</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.93</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -36102,7 +36116,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.99</v>
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>
@@ -41217,7 +41231,9 @@
       <c r="C116" t="n">
         <v>1.087619047619047</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.06999999999999876</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -41228,7 +41244,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -46343,7 +46359,9 @@
       <c r="C116" t="n">
         <v>1.09</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -46354,7 +46372,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5512,7 +5512,9 @@
       <c r="D116" t="n">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.31</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -5522,7 +5524,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.22</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -10560,7 +10562,9 @@
       <c r="D116" t="n">
         <v>-0.43</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.27</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -10570,7 +10574,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.06</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -15688,7 +15692,9 @@
       <c r="D116" t="n">
         <v>0.09</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.66</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -15698,7 +15704,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -20816,7 +20822,9 @@
       <c r="D116" t="n">
         <v>0.27</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.01</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -20826,7 +20834,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -25850,7 +25858,9 @@
       <c r="D116" t="n">
         <v>0.12</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.01</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -25860,7 +25870,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>
@@ -30978,7 +30988,9 @@
       <c r="D116" t="n">
         <v>0.21</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.25</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -30988,7 +31000,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -36106,7 +36118,9 @@
       <c r="D116" t="n">
         <v>0.93</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.11</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -36116,7 +36130,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -41234,7 +41248,9 @@
       <c r="D116" t="n">
         <v>0.06999999999999876</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.087619047619048</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -41244,7 +41260,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -46362,7 +46378,9 @@
       <c r="D116" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.09</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -46372,7 +46390,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5515,8 +5515,12 @@
       <c r="E116" t="n">
         <v>1.31</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.33</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5524,7 +5528,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -10565,8 +10569,12 @@
       <c r="E116" t="n">
         <v>1.27</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.3</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -10574,7 +10582,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.28</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -15695,8 +15703,12 @@
       <c r="E116" t="n">
         <v>0.66</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.13</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -15704,7 +15716,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.52</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -20825,8 +20837,12 @@
       <c r="E116" t="n">
         <v>1.01</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.62</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -20834,7 +20850,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.88</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -25861,8 +25877,12 @@
       <c r="E116" t="n">
         <v>1.01</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.33</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -25870,7 +25890,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>
@@ -30991,8 +31011,12 @@
       <c r="E116" t="n">
         <v>1.25</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2.08</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -31000,7 +31024,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1</v>
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -36121,8 +36145,12 @@
       <c r="E116" t="n">
         <v>1.11</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.75</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -36130,7 +36158,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>
@@ -41251,8 +41279,12 @@
       <c r="E116" t="n">
         <v>1.087619047619048</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.014285714285714</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.361952380952381</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -41260,7 +41292,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.85</v>
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>
@@ -46381,8 +46413,12 @@
       <c r="E116" t="n">
         <v>1.09</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.36</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -46390,7 +46426,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.85</v>
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5521,14 +5521,16 @@
       <c r="G116" t="n">
         <v>0.33</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.05</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -10575,7 +10577,9 @@
       <c r="G116" t="n">
         <v>1.3</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>0.78</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -15709,14 +15713,16 @@
       <c r="G116" t="n">
         <v>1.13</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>0.4</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -20843,14 +20849,16 @@
       <c r="G116" t="n">
         <v>1.62</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.45</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
@@ -25881,16 +25889,18 @@
         <v>1.95</v>
       </c>
       <c r="G116" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>1.23</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.04</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>
@@ -31017,14 +31027,16 @@
       <c r="G116" t="n">
         <v>2.08</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.1</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -36151,14 +36163,16 @@
       <c r="G116" t="n">
         <v>1.75</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.8</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>
@@ -41283,16 +41297,18 @@
         <v>2.014285714285714</v>
       </c>
       <c r="G116" t="n">
-        <v>1.361952380952381</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>1.347666666666666</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.089095238095239</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>
@@ -46417,16 +46433,18 @@
         <v>2.01</v>
       </c>
       <c r="G116" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>1.35</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.09</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5524,13 +5524,15 @@
       <c r="H116" t="n">
         <v>1.05</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.84</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -10580,13 +10582,15 @@
       <c r="H116" t="n">
         <v>0.78</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.8</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -15716,13 +15720,15 @@
       <c r="H116" t="n">
         <v>0.4</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.88</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.78</v>
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -20852,13 +20858,15 @@
       <c r="H116" t="n">
         <v>1.45</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.73</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.23</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
@@ -25894,13 +25902,15 @@
       <c r="H116" t="n">
         <v>1.04</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.73</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>
@@ -31030,13 +31040,15 @@
       <c r="H116" t="n">
         <v>1.1</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.21</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>
@@ -36166,13 +36178,15 @@
       <c r="H116" t="n">
         <v>1.8</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0.31</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -41302,13 +41316,15 @@
       <c r="H116" t="n">
         <v>1.089095238095239</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.5541904761904763</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -46438,13 +46454,15 @@
       <c r="H116" t="n">
         <v>1.09</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.55</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.12</v>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5527,12 +5527,14 @@
       <c r="I116" t="n">
         <v>-0.84</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.05</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
@@ -10585,12 +10587,14 @@
       <c r="I116" t="n">
         <v>-0.8</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.77</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -15723,12 +15727,14 @@
       <c r="I116" t="n">
         <v>-0.88</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.03</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -20861,12 +20867,14 @@
       <c r="I116" t="n">
         <v>-0.73</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.24</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
@@ -25905,12 +25913,14 @@
       <c r="I116" t="n">
         <v>-0.73</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.92</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>
@@ -31043,12 +31053,14 @@
       <c r="I116" t="n">
         <v>-0.21</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.58</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -36181,12 +36193,14 @@
       <c r="I116" t="n">
         <v>0.31</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.37</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>
@@ -41319,12 +41333,14 @@
       <c r="I116" t="n">
         <v>-0.5541904761904763</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.280523809523808</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -46457,12 +46473,14 @@
       <c r="I116" t="n">
         <v>-0.55</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.28</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5530,11 +5530,13 @@
       <c r="J116" t="n">
         <v>1.05</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.73</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -10590,11 +10592,13 @@
       <c r="J116" t="n">
         <v>1.77</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.3</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -15730,11 +15734,13 @@
       <c r="J116" t="n">
         <v>1.03</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.19</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -20870,11 +20876,13 @@
       <c r="J116" t="n">
         <v>1.24</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.29</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.02</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -25916,11 +25924,13 @@
       <c r="J116" t="n">
         <v>0.92</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>-0.3</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.21</v>
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>
@@ -31056,11 +31066,13 @@
       <c r="J116" t="n">
         <v>1.58</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.5</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>
@@ -36196,11 +36208,13 @@
       <c r="J116" t="n">
         <v>1.37</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.95</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>
@@ -41336,11 +41350,13 @@
       <c r="J116" t="n">
         <v>1.280523809523808</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.3805238095238097</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -46476,11 +46492,13 @@
       <c r="J116" t="n">
         <v>1.28</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.38</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5533,10 +5533,12 @@
       <c r="K116" t="n">
         <v>0.73</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.49</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -10595,10 +10597,12 @@
       <c r="K116" t="n">
         <v>0.3</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -15737,10 +15741,12 @@
       <c r="K116" t="n">
         <v>0.19</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.32</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -20879,10 +20885,12 @@
       <c r="K116" t="n">
         <v>0.29</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.45</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -25927,10 +25935,12 @@
       <c r="K116" t="n">
         <v>-0.3</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.62</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
@@ -31069,10 +31079,12 @@
       <c r="K116" t="n">
         <v>0.5</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.22</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
@@ -36211,10 +36223,12 @@
       <c r="K116" t="n">
         <v>0.95</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>-0.01</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -41353,10 +41367,12 @@
       <c r="K116" t="n">
         <v>0.3805238095238097</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.4151904761904746</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -46495,10 +46511,12 @@
       <c r="K116" t="n">
         <v>0.38</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.42</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5536,10 +5536,30 @@
       <c r="L116" t="n">
         <v>0.49</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.09</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.45</v>
-      </c>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5552,7 +5572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10600,10 +10620,30 @@
       <c r="L116" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.61</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.7</v>
-      </c>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10616,7 +10656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15744,10 +15784,30 @@
       <c r="L116" t="n">
         <v>0.32</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.43</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.5600000000000001</v>
-      </c>
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15760,7 +15820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20888,10 +20948,30 @@
       <c r="L116" t="n">
         <v>0.45</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.51</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.9</v>
-      </c>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20904,7 +20984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25938,10 +26018,30 @@
       <c r="L116" t="n">
         <v>0.62</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.86</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.02</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25954,7 +26054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31082,10 +31182,30 @@
       <c r="L116" t="n">
         <v>0.22</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.24</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.05</v>
-      </c>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31098,7 +31218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36226,10 +36346,30 @@
       <c r="L116" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.8</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.3</v>
-      </c>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36242,7 +36382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41370,10 +41510,30 @@
       <c r="L116" t="n">
         <v>0.4151904761904746</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.076</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.85</v>
-      </c>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41386,7 +41546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46514,10 +46674,30 @@
       <c r="L116" t="n">
         <v>0.42</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.08</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.85</v>
-      </c>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5547,7 +5547,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.61</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -5559,7 +5561,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10631,7 +10635,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.63</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -10643,7 +10649,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15795,7 +15803,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.54</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -15807,7 +15817,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20959,7 +20971,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.27</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -20971,7 +20985,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26029,7 +26045,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>0.75</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -26041,7 +26059,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>0.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31193,7 +31213,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.44</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -31205,7 +31227,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36357,7 +36381,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>0.87</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -36369,7 +36395,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>0.87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41521,7 +41549,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.301904761904764</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -41533,7 +41563,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46685,7 +46717,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.3</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -46697,7 +46731,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5550,7 +5550,9 @@
       <c r="B117" t="n">
         <v>1.61</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.01</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -5562,7 +5564,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.61</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10638,7 +10640,9 @@
       <c r="B117" t="n">
         <v>1.63</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.03</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -10650,7 +10654,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.63</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -15806,7 +15810,9 @@
       <c r="B117" t="n">
         <v>1.54</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.11</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -15818,7 +15824,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.54</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -20974,7 +20980,9 @@
       <c r="B117" t="n">
         <v>1.27</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.12</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -20986,7 +20994,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.27</v>
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -26048,7 +26056,9 @@
       <c r="B117" t="n">
         <v>0.75</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-1.24</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -26060,7 +26070,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.75</v>
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -31216,7 +31226,9 @@
       <c r="B117" t="n">
         <v>1.44</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.2</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -31228,7 +31240,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.44</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -36384,7 +36396,9 @@
       <c r="B117" t="n">
         <v>0.87</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.61</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -36396,7 +36410,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -41552,7 +41566,9 @@
       <c r="B117" t="n">
         <v>1.301904761904764</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.1123809523809529</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -41564,7 +41580,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.3</v>
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -46720,7 +46736,9 @@
       <c r="B117" t="n">
         <v>1.3</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.11</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -46732,7 +46750,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5553,7 +5553,9 @@
       <c r="C117" t="n">
         <v>0.01</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.09</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -5564,7 +5566,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -10643,7 +10645,9 @@
       <c r="C117" t="n">
         <v>0.03</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.93</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -10654,7 +10658,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.83</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -15813,7 +15817,9 @@
       <c r="C117" t="n">
         <v>0.11</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.71</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -15824,7 +15830,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.82</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -20983,7 +20989,9 @@
       <c r="C117" t="n">
         <v>-0.12</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.73</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -20994,7 +21002,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.57</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -26059,7 +26067,9 @@
       <c r="C117" t="n">
         <v>-1.24</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.28</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -26070,7 +26080,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.24</v>
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
@@ -31229,7 +31239,9 @@
       <c r="C117" t="n">
         <v>-0.2</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.29</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -31240,7 +31252,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.62</v>
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -36399,7 +36411,9 @@
       <c r="C117" t="n">
         <v>0.61</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.87</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -36410,7 +36424,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.74</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -41569,7 +41583,9 @@
       <c r="C117" t="n">
         <v>-0.1123809523809529</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.9871428571428584</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -41580,7 +41596,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.59</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -46739,7 +46755,9 @@
       <c r="C117" t="n">
         <v>-0.11</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.99</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -46750,7 +46768,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.6</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5556,7 +5556,9 @@
       <c r="D117" t="n">
         <v>-1.09</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.41</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -5566,7 +5568,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -10648,7 +10650,9 @@
       <c r="D117" t="n">
         <v>-0.93</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.37</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -10658,7 +10662,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -15820,7 +15824,9 @@
       <c r="D117" t="n">
         <v>-0.71</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.36</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -15830,7 +15836,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -20992,7 +20998,9 @@
       <c r="D117" t="n">
         <v>-0.73</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.61</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -21002,7 +21010,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -26070,7 +26078,9 @@
       <c r="D117" t="n">
         <v>-1.28</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.21</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -26080,7 +26090,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.59</v>
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -31158,7 +31168,7 @@
         <v>0.95</v>
       </c>
       <c r="F115" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="G115" t="n">
         <v>1.28</v>
@@ -31182,7 +31192,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="N115" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="116">
@@ -31242,7 +31252,9 @@
       <c r="D117" t="n">
         <v>-1.29</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.75</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -31252,7 +31264,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.02</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -36414,7 +36426,9 @@
       <c r="D117" t="n">
         <v>-0.87</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.41</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -36424,7 +36438,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -41502,7 +41516,7 @@
         <v>1.159047619047619</v>
       </c>
       <c r="F115" t="n">
-        <v>1.442857142857143</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="G115" t="n">
         <v>1.16195238095238</v>
@@ -41526,7 +41540,7 @@
         <v>1.161714285714286</v>
       </c>
       <c r="N115" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="116">
@@ -41586,7 +41600,9 @@
       <c r="D117" t="n">
         <v>-0.9871428571428584</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.444761904761905</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -41596,7 +41612,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -46674,7 +46690,7 @@
         <v>1.16</v>
       </c>
       <c r="F115" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G115" t="n">
         <v>1.16</v>
@@ -46758,7 +46774,9 @@
       <c r="D117" t="n">
         <v>-0.99</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.44</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -46768,7 +46786,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5559,7 +5559,9 @@
       <c r="E117" t="n">
         <v>0.41</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.14</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -5568,7 +5570,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.24</v>
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>
@@ -10653,7 +10655,9 @@
       <c r="E117" t="n">
         <v>0.37</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.32</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -10662,7 +10666,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.27</v>
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>
@@ -15827,7 +15831,9 @@
       <c r="E117" t="n">
         <v>0.36</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.44</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -15836,7 +15842,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.33</v>
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
@@ -21001,7 +21007,9 @@
       <c r="E117" t="n">
         <v>0.61</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.26</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -21010,7 +21018,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.26</v>
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -26081,7 +26089,9 @@
       <c r="E117" t="n">
         <v>0.21</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.85</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -26090,7 +26100,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.39</v>
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -31255,7 +31265,9 @@
       <c r="E117" t="n">
         <v>0.75</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-2.26</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -31264,7 +31276,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.18</v>
+        <v>-0.31</v>
       </c>
     </row>
   </sheetData>
@@ -36429,7 +36441,9 @@
       <c r="E117" t="n">
         <v>0.41</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.82</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -36438,7 +36452,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -41603,7 +41617,9 @@
       <c r="E117" t="n">
         <v>0.444761904761905</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.3</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -41612,7 +41628,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.16</v>
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
@@ -46777,7 +46793,9 @@
       <c r="E117" t="n">
         <v>0.44</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.3</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -46786,7 +46804,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.16</v>
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5562,7 +5562,9 @@
       <c r="F117" t="n">
         <v>-1.14</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.33</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5570,7 +5572,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.04</v>
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
@@ -10658,7 +10660,9 @@
       <c r="F117" t="n">
         <v>-1.32</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.9</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -10666,7 +10670,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.04</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -15834,7 +15838,9 @@
       <c r="F117" t="n">
         <v>-1.44</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.83</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -15842,7 +15848,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.03</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -21010,7 +21016,9 @@
       <c r="F117" t="n">
         <v>-1.26</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.22</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -21018,7 +21026,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.05</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -26092,7 +26100,9 @@
       <c r="F117" t="n">
         <v>-0.85</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.23</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -26100,7 +26110,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.48</v>
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -31268,7 +31278,9 @@
       <c r="F117" t="n">
         <v>-2.26</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.88</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -31276,7 +31288,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.31</v>
+        <v>-0.11</v>
       </c>
     </row>
   </sheetData>
@@ -36444,7 +36456,9 @@
       <c r="F117" t="n">
         <v>-0.82</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.55</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -36452,7 +36466,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.04</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -41620,7 +41634,9 @@
       <c r="F117" t="n">
         <v>-1.3</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.133380952380952</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -41628,7 +41644,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.13</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -46796,7 +46812,9 @@
       <c r="F117" t="n">
         <v>-1.3</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.13</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -46804,7 +46822,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.13</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5565,14 +5565,16 @@
       <c r="G117" t="n">
         <v>1.33</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.45</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -10663,14 +10665,16 @@
       <c r="G117" t="n">
         <v>0.9</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.78</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -15841,14 +15845,16 @@
       <c r="G117" t="n">
         <v>0.83</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.7</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -21019,14 +21025,16 @@
       <c r="G117" t="n">
         <v>1.22</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.05</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.16</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -26103,14 +26111,16 @@
       <c r="G117" t="n">
         <v>1.23</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.14</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.2</v>
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -31281,14 +31291,16 @@
       <c r="G117" t="n">
         <v>0.88</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.8</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.11</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -36459,14 +36471,16 @@
       <c r="G117" t="n">
         <v>1.55</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.7</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.29</v>
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -41637,14 +41651,16 @@
       <c r="G117" t="n">
         <v>1.133380952380952</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.9462380952380959</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -46815,14 +46831,16 @@
       <c r="G117" t="n">
         <v>1.13</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.95</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMean_unrounded" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMean_rounded" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="NZT7_TMean_unrounded" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="NZT7_TMean_rounded" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -5568,13 +5567,15 @@
       <c r="H117" t="n">
         <v>0.45</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.66</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -10668,13 +10669,15 @@
       <c r="H117" t="n">
         <v>0.78</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.1</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -15848,13 +15851,15 @@
       <c r="H117" t="n">
         <v>0.7</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.82</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -21028,13 +21033,15 @@
       <c r="H117" t="n">
         <v>1.05</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.57</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -26114,13 +26121,15 @@
       <c r="H117" t="n">
         <v>1.14</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.87</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.01</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -31294,13 +31303,15 @@
       <c r="H117" t="n">
         <v>0.8</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.89</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -36474,13 +36485,15 @@
       <c r="H117" t="n">
         <v>1.7</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -41654,13 +41667,15 @@
       <c r="H117" t="n">
         <v>0.9462380952380959</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.845809523809524</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -46834,13 +46849,15 @@
       <c r="H117" t="n">
         <v>0.95</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.85</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5570,12 +5570,14 @@
       <c r="I117" t="n">
         <v>0.66</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.85</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -10672,12 +10674,14 @@
       <c r="I117" t="n">
         <v>1.1</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.57</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -15854,12 +15858,14 @@
       <c r="I117" t="n">
         <v>0.82</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.63</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -21036,12 +21042,14 @@
       <c r="I117" t="n">
         <v>0.57</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.44</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -26124,12 +26132,14 @@
       <c r="I117" t="n">
         <v>0.87</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.02</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -31306,12 +31316,14 @@
       <c r="I117" t="n">
         <v>0.89</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.98</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
@@ -36488,12 +36500,14 @@
       <c r="I117" t="n">
         <v>1.01</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.07</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -41670,12 +41684,14 @@
       <c r="I117" t="n">
         <v>0.845809523809524</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.6519523809523792</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -46852,12 +46868,14 @@
       <c r="I117" t="n">
         <v>0.85</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.65</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -5573,11 +5573,13 @@
       <c r="J117" t="n">
         <v>0.85</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.83</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -10677,11 +10679,13 @@
       <c r="J117" t="n">
         <v>0.57</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.9</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -15861,11 +15865,13 @@
       <c r="J117" t="n">
         <v>0.63</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.99</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -21045,11 +21051,13 @@
       <c r="J117" t="n">
         <v>0.44</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.29</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -26135,11 +26143,13 @@
       <c r="J117" t="n">
         <v>0.02</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.8</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -31319,11 +31329,13 @@
       <c r="J117" t="n">
         <v>0.98</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.7</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -36503,11 +36515,13 @@
       <c r="J117" t="n">
         <v>1.07</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.75</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -41687,11 +41701,13 @@
       <c r="J117" t="n">
         <v>0.6519523809523792</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.7519523809523808</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -46871,11 +46887,13 @@
       <c r="J117" t="n">
         <v>0.65</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.75</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -36618,37 +36618,37 @@
         <v>-2.329166666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6583333333333332</v>
+        <v>-0.6583333333333345</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.08583333333333387</v>
+        <v>-0.08583333333333432</v>
       </c>
       <c r="E2" t="n">
         <v>-1.203333333333334</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1324999999999998</v>
+        <v>-0.1324999999999994</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2575833333333328</v>
+        <v>0.2575833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5199166666666664</v>
+        <v>-0.5199166666666661</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06324999999999981</v>
+        <v>-0.06325000000000003</v>
       </c>
       <c r="J2" t="n">
         <v>-0.5808333333333335</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3283333333333323</v>
+        <v>-0.328333333333334</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1591666666666658</v>
+        <v>0.1591666666666667</v>
       </c>
       <c r="M2" t="n">
-        <v>1.108916666666669</v>
+        <v>1.108916666666667</v>
       </c>
       <c r="N2" t="n">
         <v>-0.36</v>
@@ -36662,37 +36662,37 @@
         <v>-0.2258666666666652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2314666666666678</v>
+        <v>0.2314666666666668</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0712000000000014</v>
+        <v>-0.07120000000000104</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.4652</v>
+        <v>-1.465200000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09786666666666655</v>
+        <v>-0.09786666666666691</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1511333333333335</v>
+        <v>-0.1511333333333331</v>
       </c>
       <c r="H3" t="n">
         <v>-1.270466666666666</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5423999999999994</v>
+        <v>-0.5424</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.5578000000000017</v>
+        <v>-0.557800000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2602</v>
+        <v>0.2601999999999993</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7621999999999997</v>
+        <v>0.7622000000000003</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.4793333333333322</v>
+        <v>-0.4793333333333337</v>
       </c>
       <c r="N3" t="n">
         <v>-0.3</v>
@@ -36706,37 +36706,37 @@
         <v>-1.225866666666665</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.708533333333332</v>
+        <v>-1.708533333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6487999999999985</v>
+        <v>0.6487999999999989</v>
       </c>
       <c r="E4" t="n">
         <v>1.3948</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.677866666666667</v>
+        <v>-0.6778666666666673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4111333333333335</v>
+        <v>-0.4111333333333331</v>
       </c>
       <c r="H4" t="n">
         <v>-1.050466666666666</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4423999999999998</v>
+        <v>-0.4424000000000003</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.9178000000000018</v>
+        <v>-0.9178000000000012</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.0598</v>
+        <v>-1.059800000000001</v>
       </c>
       <c r="L4" t="n">
         <v>-1.4778</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.839333333333332</v>
+        <v>-2.839333333333333</v>
       </c>
       <c r="N4" t="n">
         <v>-0.8100000000000001</v>
@@ -36750,16 +36750,16 @@
         <v>-2.225866666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.03</v>
+        <v>-3.030000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-2.610000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.9383333333333331</v>
+        <v>-0.9383333333333338</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.18</v>
+        <v>-2.180000000000001</v>
       </c>
       <c r="G5" t="n">
         <v>-1.238277777777778</v>
@@ -36771,16 +36771,16 @@
         <v>-1.507111111111111</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1323333333333344</v>
+        <v>-0.1323333333333337</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.4323333333333333</v>
+        <v>-0.4323333333333338</v>
       </c>
       <c r="L5" t="n">
         <v>-1.14052380952381</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.5368571428571425</v>
+        <v>-0.5368571428571427</v>
       </c>
       <c r="N5" t="n">
         <v>-1.41</v>
@@ -36791,37 +36791,37 @@
         <v>1913</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.795238095238094</v>
+        <v>-0.795238095238095</v>
       </c>
       <c r="C6" t="n">
         <v>-1.766666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5271428571428591</v>
+        <v>-0.5271428571428584</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.223809523809523</v>
+        <v>-2.223809523809524</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.411428571428571</v>
+        <v>-3.411428571428572</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.792333333333334</v>
+        <v>-1.792333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2223333333333326</v>
+        <v>-0.2223333333333328</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8370476190476188</v>
+        <v>-0.8370476190476189</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3690952380952367</v>
+        <v>0.3690952380952375</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1166190476190475</v>
+        <v>-0.116619047619048</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.881952380952382</v>
+        <v>-0.8819523809523814</v>
       </c>
       <c r="M6" t="n">
         <v>-1.835428571428571</v>
@@ -36835,22 +36835,22 @@
         <v>1914</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1190476190476204</v>
+        <v>0.1190476190476194</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9238095238095239</v>
+        <v>-0.9238095238095241</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6271428571428584</v>
+        <v>-0.6271428571428578</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.6666666666666669</v>
       </c>
       <c r="F7" t="n">
         <v>-2.525714285714286</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.563761904761906</v>
+        <v>-1.563761904761905</v>
       </c>
       <c r="H7" t="n">
         <v>-1.093761904761904</v>
@@ -36859,16 +36859,16 @@
         <v>-1.379904761904762</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.9166190476190492</v>
+        <v>-0.9166190476190484</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.5594761904761903</v>
+        <v>-0.5594761904761908</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.167666666666668</v>
+        <v>-1.167666666666667</v>
       </c>
       <c r="M7" t="n">
-        <v>-2.63542857142857</v>
+        <v>-2.635428571428572</v>
       </c>
       <c r="N7" t="n">
         <v>-1.16</v>
@@ -36879,16 +36879,16 @@
         <v>1915</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8809523809523796</v>
+        <v>-0.8809523809523806</v>
       </c>
       <c r="C8" t="n">
         <v>-2.095238095238096</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.284285714285716</v>
+        <v>-2.284285714285715</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.966666666666666</v>
+        <v>-1.966666666666667</v>
       </c>
       <c r="F8" t="n">
         <v>-1.282857142857143</v>
@@ -36897,22 +36897,22 @@
         <v>-1.120904761904762</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06338095238095345</v>
+        <v>0.06338095238095333</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.579904761904762</v>
+        <v>-0.5799047619047621</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7548095238095224</v>
+        <v>0.754809523809523</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7833809523809523</v>
+        <v>0.7833809523809518</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.7676666666666677</v>
+        <v>-0.7676666666666669</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.2468571428571428</v>
+        <v>-0.2468571428571431</v>
       </c>
       <c r="N8" t="n">
         <v>-0.8</v>
@@ -36923,37 +36923,37 @@
         <v>1916</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.8209523809523797</v>
+        <v>-0.8209523809523807</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2790476190476193</v>
+        <v>0.279047619047619</v>
       </c>
       <c r="D9" t="n">
-        <v>1.66142857142857</v>
+        <v>1.661428571428571</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3504761904761907</v>
+        <v>0.3504761904761904</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.07999999999999956</v>
+        <v>-0.07999999999999982</v>
       </c>
       <c r="G9" t="n">
         <v>1.139095238095238</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02338095238095317</v>
+        <v>0.02338095238095304</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.7484761904761906</v>
+        <v>-0.7484761904761907</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.2280476190476204</v>
+        <v>-0.2280476190476196</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.3423333333333335</v>
+        <v>-0.342333333333334</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7351904761904746</v>
+        <v>0.7351904761904754</v>
       </c>
       <c r="M9" t="n">
         <v>1.024571428571429</v>
@@ -36967,40 +36967,40 @@
         <v>1917</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4790476190476211</v>
+        <v>0.4790476190476201</v>
       </c>
       <c r="C10" t="n">
         <v>-1.14952380952381</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1385714285714299</v>
+        <v>-0.1385714285714292</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6790476190476191</v>
+        <v>0.6790476190476189</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3771428571428575</v>
+        <v>0.3771428571428572</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02480952380952342</v>
+        <v>0.02480952380952368</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7090952380952389</v>
+        <v>0.7090952380952388</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7341904761904763</v>
+        <v>-0.7341904761904764</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5576666666666653</v>
+        <v>0.5576666666666661</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1433809523809528</v>
+        <v>0.1433809523809522</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7066190476190469</v>
+        <v>0.7066190476190476</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.9325714285714284</v>
+        <v>-0.9325714285714286</v>
       </c>
       <c r="N10" t="n">
         <v>0.06</v>
@@ -37011,34 +37011,34 @@
         <v>1918</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3923809523809516</v>
+        <v>-0.3923809523809526</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3076190476190467</v>
+        <v>0.3076190476190465</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2957142857142873</v>
+        <v>-0.2957142857142865</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1352380952380951</v>
+        <v>-0.1352380952380953</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.051428571428571</v>
+        <v>-1.051428571428572</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.6323333333333337</v>
+        <v>-0.6323333333333335</v>
       </c>
       <c r="H11" t="n">
         <v>-2.233761904761904</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.034190476190476</v>
+        <v>-1.034190476190477</v>
       </c>
       <c r="J11" t="n">
         <v>-1.342333333333334</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.5994761904761905</v>
+        <v>-0.5994761904761911</v>
       </c>
       <c r="L11" t="n">
         <v>-1.393380952380953</v>
@@ -37055,40 +37055,40 @@
         <v>1919</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.435238095238094</v>
+        <v>-2.435238095238095</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6209523809523808</v>
+        <v>-0.620952380952381</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.252857142857145</v>
+        <v>-1.252857142857144</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.692380952380952</v>
+        <v>-1.692380952380953</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.908571428571428</v>
+        <v>-1.908571428571429</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.9323333333333338</v>
+        <v>-0.9323333333333335</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5909047619047609</v>
+        <v>-0.590904761904761</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6770476190476191</v>
+        <v>-0.6770476190476192</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.656619047619049</v>
+        <v>-1.656619047619048</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.6709047619047622</v>
+        <v>-0.6709047619047627</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.793380952380953</v>
+        <v>-1.793380952380952</v>
       </c>
       <c r="M12" t="n">
-        <v>-2.018285714285714</v>
+        <v>-2.018285714285715</v>
       </c>
       <c r="N12" t="n">
         <v>-1.35</v>
@@ -37099,40 +37099,40 @@
         <v>1920</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.535238095238094</v>
+        <v>-2.535238095238095</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.7352380952380952</v>
+        <v>-0.7352380952380955</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8671428571428584</v>
+        <v>-0.8671428571428577</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6495238095238095</v>
+        <v>-0.6495238095238098</v>
       </c>
       <c r="F13" t="n">
         <v>-2.55</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.6023333333333338</v>
+        <v>-0.6023333333333335</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4323333333333326</v>
+        <v>-0.4323333333333327</v>
       </c>
       <c r="I13" t="n">
         <v>-1.775619047619048</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.498047619047621</v>
+        <v>-1.49804761904762</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.4837619047619047</v>
+        <v>-0.4837619047619052</v>
       </c>
       <c r="L13" t="n">
         <v>-1.549095238095239</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.7054285714285713</v>
+        <v>-0.7054285714285715</v>
       </c>
       <c r="N13" t="n">
         <v>-1.2</v>
@@ -37143,37 +37143,37 @@
         <v>1921</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.265238095238094</v>
+        <v>-1.265238095238095</v>
       </c>
       <c r="C14" t="n">
         <v>-1.608095238095238</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.182857142857145</v>
+        <v>-1.182857142857144</v>
       </c>
       <c r="E14" t="n">
         <v>-1.893809523809524</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.095714285714285</v>
+        <v>-1.095714285714286</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.005190476190476697</v>
+        <v>-0.005190476190476444</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.3494761904761896</v>
+        <v>-0.3494761904761897</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.7641904761904763</v>
+        <v>-0.7641904761904764</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.0580476190476202</v>
+        <v>-0.05804761904761944</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.2580476190476192</v>
+        <v>-0.2580476190476197</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.7519523809523818</v>
+        <v>-0.751952380952381</v>
       </c>
       <c r="M14" t="n">
         <v>-1.334</v>
@@ -37187,40 +37187,40 @@
         <v>1922</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9223809523809512</v>
+        <v>-0.9223809523809522</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.4652380952380956</v>
+        <v>-0.4652380952380959</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.854285714285716</v>
+        <v>-1.854285714285715</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6080952380952377</v>
+        <v>-0.608095238095238</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8100000000000003</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="G15" t="n">
         <v>-1.633761904761905</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.035190476190475</v>
+        <v>-1.035190476190476</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.5499047619047619</v>
+        <v>-0.549904761904762</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.800904761904763</v>
+        <v>-0.8009047619047622</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9419523809523811</v>
+        <v>0.9419523809523805</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.5090952380952393</v>
+        <v>-0.5090952380952386</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.505428571428571</v>
+        <v>-0.5054285714285712</v>
       </c>
       <c r="N15" t="n">
         <v>-0.73</v>
@@ -37231,7 +37231,7 @@
         <v>1923</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.6795238095238082</v>
+        <v>-0.6795238095238092</v>
       </c>
       <c r="C16" t="n">
         <v>-2.422380952380953</v>
@@ -37240,10 +37240,10 @@
         <v>-1.940000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.408095238095238</v>
+        <v>-2.408095238095239</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6814285714285714</v>
+        <v>-0.6814285714285716</v>
       </c>
       <c r="G16" t="n">
         <v>-1.190904761904762</v>
@@ -37255,16 +37255,16 @@
         <v>-1.749904761904762</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.08661904761904893</v>
+        <v>-0.08661904761904816</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.2723333333333332</v>
+        <v>-0.2723333333333337</v>
       </c>
       <c r="L16" t="n">
-        <v>1.195190476190475</v>
+        <v>1.195190476190476</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8988571428571434</v>
+        <v>0.8988571428571431</v>
       </c>
       <c r="N16" t="n">
         <v>-0.89</v>
@@ -37275,37 +37275,37 @@
         <v>1924</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06761904761904905</v>
+        <v>0.06761904761904804</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2676190476190481</v>
+        <v>0.2676190476190478</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2928571428571412</v>
+        <v>0.2928571428571419</v>
       </c>
       <c r="E17" t="n">
         <v>2.11047619047619</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8485714285714282</v>
+        <v>-0.8485714285714285</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4151904761904766</v>
+        <v>-0.4151904761904763</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.830904761904761</v>
+        <v>-0.8309047619047611</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3884761904761906</v>
+        <v>-0.3884761904761907</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7605238095238084</v>
+        <v>0.7605238095238092</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6748095238095241</v>
+        <v>0.6748095238095235</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3666190476190468</v>
+        <v>0.3666190476190475</v>
       </c>
       <c r="M17" t="n">
         <v>-1.258285714285714</v>
@@ -37319,13 +37319,13 @@
         <v>1925</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.618095238095237</v>
+        <v>-0.618095238095238</v>
       </c>
       <c r="C18" t="n">
         <v>-1.732380952380952</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.678571428571431</v>
+        <v>-1.67857142857143</v>
       </c>
       <c r="E18" t="n">
         <v>-1.060952380952381</v>
@@ -37337,22 +37337,22 @@
         <v>-1.472333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3451904761904755</v>
+        <v>-0.3451904761904757</v>
       </c>
       <c r="I18" t="n">
         <v>-1.302761904761905</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.453761904761906</v>
+        <v>-1.453761904761905</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.3823333333333331</v>
+        <v>-0.3823333333333337</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.390523809523811</v>
+        <v>-1.39052380952381</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.8582857142857142</v>
+        <v>-0.8582857142857144</v>
       </c>
       <c r="N18" t="n">
         <v>-1.15</v>
@@ -37363,37 +37363,37 @@
         <v>1926</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.4595238095238085</v>
+        <v>-0.4595238095238096</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.630952380952381</v>
+        <v>-2.630952380952382</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.805714285714287</v>
+        <v>-1.805714285714286</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5690476190476189</v>
+        <v>0.5690476190476187</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8900000000000003</v>
+        <v>-0.8900000000000006</v>
       </c>
       <c r="G19" t="n">
         <v>-1.013761904761905</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3723333333333326</v>
+        <v>-0.3723333333333327</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.929904761904762</v>
+        <v>-0.9299047619047621</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.7523333333333344</v>
+        <v>-0.7523333333333336</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.395190476190476</v>
+        <v>-0.3951904761904765</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.346238095238096</v>
+        <v>-1.346238095238095</v>
       </c>
       <c r="M19" t="n">
         <v>-1.499714285714285</v>
@@ -37407,13 +37407,13 @@
         <v>1927</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2595238095238087</v>
+        <v>-0.2595238095238098</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3452380952380952</v>
+        <v>-0.3452380952380954</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.9200000000000015</v>
+        <v>-0.9200000000000007</v>
       </c>
       <c r="E20" t="n">
         <v>-1.745238095238095</v>
@@ -37425,19 +37425,19 @@
         <v>-2.128047619047619</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.5437619047619038</v>
+        <v>-0.5437619047619039</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.387047619047619</v>
+        <v>-1.38704761904762</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.4951904761904774</v>
+        <v>-0.4951904761904767</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.638047619047619</v>
+        <v>-0.6380476190476195</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.660523809523811</v>
+        <v>-1.66052380952381</v>
       </c>
       <c r="M20" t="n">
         <v>-1.656857142857142</v>
@@ -37451,40 +37451,40 @@
         <v>1928</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.8180952380952365</v>
+        <v>-0.8180952380952375</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6104761904761903</v>
+        <v>0.61047619047619</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7357142857142845</v>
+        <v>0.7357142857142852</v>
       </c>
       <c r="E21" t="n">
         <v>1.510476190476191</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2228571428571429</v>
+        <v>0.2228571428571427</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.6294761904761906</v>
+        <v>-0.6294761904761904</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2833809523809531</v>
+        <v>0.283380952380953</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4170476190476193</v>
+        <v>-0.4170476190476194</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.639476190476192</v>
+        <v>-0.6394761904761912</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.1109047619047617</v>
+        <v>-0.1109047619047622</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.330523809523811</v>
+        <v>-0.3305238095238102</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.8982857142857138</v>
+        <v>-0.898285714285714</v>
       </c>
       <c r="N21" t="n">
         <v>-0.04</v>
@@ -37495,25 +37495,25 @@
         <v>1929</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.7295238095238078</v>
+        <v>-0.7295238095238089</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.015238095238095</v>
+        <v>-1.015238095238096</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2471428571428587</v>
+        <v>-0.247142857142858</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5009523809523811</v>
+        <v>-0.5009523809523814</v>
       </c>
       <c r="F22" t="n">
         <v>-1.602857142857143</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3448095238095236</v>
+        <v>0.3448095238095238</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.9994761904761896</v>
+        <v>-0.9994761904761897</v>
       </c>
       <c r="I22" t="n">
         <v>-1.142761904761905</v>
@@ -37522,10 +37522,10 @@
         <v>-1.565190476190477</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.3366190476190479</v>
+        <v>-0.3366190476190484</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.2305238095238106</v>
+        <v>-0.2305238095238098</v>
       </c>
       <c r="M22" t="n">
         <v>-1.441142857142857</v>
@@ -37539,19 +37539,19 @@
         <v>1930</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.058095238095237</v>
+        <v>-2.058095238095238</v>
       </c>
       <c r="C23" t="n">
         <v>-1.472380952380953</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.175714285714287</v>
+        <v>-1.175714285714286</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5580952380952378</v>
+        <v>-0.5580952380952381</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.445714285714285</v>
+        <v>-1.445714285714286</v>
       </c>
       <c r="G23" t="n">
         <v>-1.398047619047619</v>
@@ -37560,16 +37560,16 @@
         <v>-1.842333333333332</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.6999047619047619</v>
+        <v>-0.6999047619047621</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.936619047619049</v>
+        <v>-1.936619047619048</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.965190476190476</v>
+        <v>-1.965190476190477</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.987666666666668</v>
+        <v>-1.987666666666667</v>
       </c>
       <c r="M23" t="n">
         <v>-1.298285714285714</v>
@@ -37583,13 +37583,13 @@
         <v>1931</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.743809523809522</v>
+        <v>-1.743809523809523</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.858095238095238</v>
+        <v>-2.858095238095239</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.590000000000002</v>
+        <v>-1.590000000000001</v>
       </c>
       <c r="E24" t="n">
         <v>-1.043809523809524</v>
@@ -37601,7 +37601,7 @@
         <v>-1.612333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.9709047619047612</v>
+        <v>-0.9709047619047613</v>
       </c>
       <c r="I24" t="n">
         <v>-1.685619047619048</v>
@@ -37610,13 +37610,13 @@
         <v>-2.20804761904762</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.250904761904762</v>
+        <v>-0.2509047619047625</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4980476190476177</v>
+        <v>0.4980476190476185</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.5839999999999994</v>
+        <v>-0.5839999999999996</v>
       </c>
       <c r="N24" t="n">
         <v>-1.29</v>
@@ -37627,37 +37627,37 @@
         <v>1932</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.979523809523808</v>
+        <v>-1.979523809523809</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.579523809523809</v>
+        <v>-1.57952380952381</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.9257142857142873</v>
+        <v>-0.9257142857142865</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.308095238095238</v>
+        <v>-0.3080952380952383</v>
       </c>
       <c r="F25" t="n">
         <v>-1.51</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.205190476190477</v>
+        <v>-1.205190476190476</v>
       </c>
       <c r="H25" t="n">
         <v>-1.978047619047618</v>
       </c>
       <c r="I25" t="n">
-        <v>-2.264190476190477</v>
+        <v>-2.264190476190476</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.129476190476192</v>
+        <v>-1.129476190476191</v>
       </c>
       <c r="K25" t="n">
-        <v>0.27052380952381</v>
+        <v>0.2705238095238095</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.05195238095238202</v>
+        <v>-0.05195238095238126</v>
       </c>
       <c r="M25" t="n">
         <v>-1.034</v>
@@ -37671,16 +37671,16 @@
         <v>1933</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.03666666666666504</v>
+        <v>-0.03666666666666606</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.4223809523809524</v>
+        <v>-0.4223809523809527</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.04000000000000194</v>
+        <v>-0.04000000000000118</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.7080952380952381</v>
+        <v>-0.7080952380952384</v>
       </c>
       <c r="F26" t="n">
         <v>-1.51</v>
@@ -37689,22 +37689,22 @@
         <v>-1.948047619047619</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.7780476190476184</v>
+        <v>-0.7780476190476185</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.9356190476190476</v>
+        <v>-0.9356190476190477</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.4294761904761918</v>
+        <v>-0.4294761904761911</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.4151904761904761</v>
+        <v>-0.4151904761904766</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.8233809523809538</v>
+        <v>-0.823380952380953</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.07685714285714214</v>
+        <v>-0.07685714285714239</v>
       </c>
       <c r="N26" t="n">
         <v>-0.68</v>
@@ -37715,37 +37715,37 @@
         <v>1934</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.979523809523808</v>
+        <v>-1.979523809523809</v>
       </c>
       <c r="C27" t="n">
         <v>-1.022380952380952</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.254285714285716</v>
+        <v>-1.254285714285715</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.07952380952380952</v>
+        <v>-0.07952380952380977</v>
       </c>
       <c r="F27" t="n">
         <v>-1.695714285714286</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.8909047619047622</v>
+        <v>-0.890904761904762</v>
       </c>
       <c r="H27" t="n">
         <v>-1.363761904761904</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.4499047619047621</v>
+        <v>-0.4499047619047622</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.286619047619049</v>
+        <v>-0.2866190476190482</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.3437619047619047</v>
+        <v>-0.3437619047619052</v>
       </c>
       <c r="L27" t="n">
-        <v>1.205190476190475</v>
+        <v>1.205190476190476</v>
       </c>
       <c r="M27" t="n">
         <v>2.523142857142858</v>
@@ -37759,37 +37759,37 @@
         <v>1935</v>
       </c>
       <c r="B28" t="n">
-        <v>1.477619047619049</v>
+        <v>1.477619047619048</v>
       </c>
       <c r="C28" t="n">
-        <v>1.091904761904762</v>
+        <v>1.091904761904761</v>
       </c>
       <c r="D28" t="n">
-        <v>0.474285714285713</v>
+        <v>0.4742857142857138</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7061904761904761</v>
+        <v>0.7061904761904759</v>
       </c>
       <c r="F28" t="n">
         <v>-1.524285714285714</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.9337619047619052</v>
+        <v>-0.933761904761905</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.9780476190476183</v>
+        <v>-0.9780476190476184</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.6784761904761903</v>
+        <v>-0.6784761904761905</v>
       </c>
       <c r="J28" t="n">
-        <v>-2.286619047619049</v>
+        <v>-2.286619047619048</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02766666666666698</v>
+        <v>0.02766666666666647</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.894809523809525</v>
+        <v>-1.894809523809524</v>
       </c>
       <c r="M28" t="n">
         <v>1.280285714285715</v>
@@ -37803,40 +37803,40 @@
         <v>1936</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4938095238095231</v>
+        <v>-0.4938095238095241</v>
       </c>
       <c r="C29" t="n">
         <v>-1.293809523809524</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.425714285714287</v>
+        <v>-2.425714285714286</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3061904761904763</v>
+        <v>0.3061904761904761</v>
       </c>
       <c r="F29" t="n">
         <v>-2.167142857142857</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.9766190476190483</v>
+        <v>-0.9766190476190479</v>
       </c>
       <c r="H29" t="n">
         <v>-1.206619047619047</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1358095238095234</v>
+        <v>0.1358095238095233</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.9580476190476203</v>
+        <v>-0.9580476190476196</v>
       </c>
       <c r="K29" t="n">
-        <v>0.57052380952381</v>
+        <v>0.5705238095238094</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.2233809523809536</v>
+        <v>-0.2233809523809528</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.533999999999999</v>
+        <v>-1.534</v>
       </c>
       <c r="N29" t="n">
         <v>-0.86</v>
@@ -37847,19 +37847,19 @@
         <v>1937</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.908095238095237</v>
+        <v>-1.908095238095238</v>
       </c>
       <c r="C30" t="n">
-        <v>-3.079523809523809</v>
+        <v>-3.07952380952381</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.8828571428571446</v>
+        <v>-0.8828571428571438</v>
       </c>
       <c r="E30" t="n">
         <v>-1.208095238095238</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.9385714285714281</v>
+        <v>-0.9385714285714284</v>
       </c>
       <c r="G30" t="n">
         <v>-2.062333333333334</v>
@@ -37868,19 +37868,19 @@
         <v>-1.320904761904761</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.4641904761904762</v>
+        <v>-0.4641904761904763</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.8866190476190489</v>
+        <v>-0.8866190476190481</v>
       </c>
       <c r="K30" t="n">
         <v>-1.100904761904762</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3337619047619039</v>
+        <v>0.3337619047619046</v>
       </c>
       <c r="M30" t="n">
-        <v>0.6231428571428579</v>
+        <v>0.6231428571428577</v>
       </c>
       <c r="N30" t="n">
         <v>-1.07</v>
@@ -37891,37 +37891,37 @@
         <v>1938</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5490476190476201</v>
+        <v>0.5490476190476191</v>
       </c>
       <c r="C31" t="n">
         <v>1.577619047619047</v>
       </c>
       <c r="D31" t="n">
-        <v>1.402857142857141</v>
+        <v>1.402857142857142</v>
       </c>
       <c r="E31" t="n">
         <v>2.277619047619047</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2757142857142857</v>
+        <v>0.2757142857142854</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.676619047619048</v>
+        <v>-0.6766190476190478</v>
       </c>
       <c r="H31" t="n">
         <v>-1.635190476190475</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.692761904761905</v>
+        <v>-0.6927619047619051</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.4294761904761913</v>
+        <v>-0.4294761904761906</v>
       </c>
       <c r="K31" t="n">
-        <v>0.09909523809523815</v>
+        <v>0.09909523809523765</v>
       </c>
       <c r="L31" t="n">
-        <v>0.448047619047618</v>
+        <v>0.4480476190476188</v>
       </c>
       <c r="M31" t="n">
         <v>-1.834</v>
@@ -37935,22 +37935,22 @@
         <v>1939</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.679523809523809</v>
+        <v>-2.67952380952381</v>
       </c>
       <c r="C32" t="n">
         <v>-1.593809523809524</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.09714285714285863</v>
+        <v>-0.09714285714285786</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.2080952380952381</v>
+        <v>-0.2080952380952384</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5814285714285717</v>
+        <v>-0.581428571428572</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5376666666666662</v>
+        <v>0.5376666666666664</v>
       </c>
       <c r="H32" t="n">
         <v>-2.278047619047618</v>
@@ -37959,16 +37959,16 @@
         <v>-1.292761904761905</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.8437619047619059</v>
+        <v>-0.8437619047619052</v>
       </c>
       <c r="K32" t="n">
         <v>-1.015190476190476</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04804761904761813</v>
+        <v>0.04804761904761889</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2660000000000003</v>
+        <v>0.266</v>
       </c>
       <c r="N32" t="n">
         <v>-0.8100000000000001</v>
@@ -37979,13 +37979,13 @@
         <v>1940</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06333333333333435</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.136666666666667</v>
+        <v>-2.136666666666668</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.86857142857143</v>
+        <v>-1.868571428571429</v>
       </c>
       <c r="E33" t="n">
         <v>-2.193809523809524</v>
@@ -37997,22 +37997,22 @@
         <v>-1.033761904761905</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.9923333333333326</v>
+        <v>-0.9923333333333327</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2356190476190476</v>
+        <v>-0.2356190476190477</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.1151904761904776</v>
+        <v>-0.1151904761904769</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.8151904761904757</v>
+        <v>-0.8151904761904761</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.994809523809525</v>
+        <v>-0.9948095238095244</v>
       </c>
       <c r="M33" t="n">
-        <v>0.4660000000000001</v>
+        <v>0.4659999999999998</v>
       </c>
       <c r="N33" t="n">
         <v>-0.99</v>
@@ -38023,37 +38023,37 @@
         <v>1941</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02047619047619215</v>
+        <v>0.02047619047619114</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.8223809523809525</v>
+        <v>-0.8223809523809528</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1314285714285704</v>
+        <v>0.1314285714285712</v>
       </c>
       <c r="E34" t="n">
         <v>-1.793809523809524</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.8814285714285717</v>
+        <v>-0.8814285714285719</v>
       </c>
       <c r="G34" t="n">
         <v>-2.176619047619048</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.9209047619047609</v>
+        <v>-0.920904761904761</v>
       </c>
       <c r="I34" t="n">
         <v>-1.864190476190476</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.6151904761904774</v>
+        <v>-0.6151904761904766</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.42947619047619</v>
+        <v>-1.429476190476191</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.5948095238095245</v>
+        <v>-0.5948095238095237</v>
       </c>
       <c r="M34" t="n">
         <v>-1.191142857142857</v>
@@ -38067,37 +38067,37 @@
         <v>1942</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.979523809523809</v>
+        <v>-1.97952380952381</v>
       </c>
       <c r="C35" t="n">
         <v>-1.793809523809524</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.097142857142859</v>
+        <v>-1.097142857142858</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.3938095238095239</v>
+        <v>-0.3938095238095242</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.6242857142857142</v>
+        <v>-0.6242857142857144</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.6909047619047625</v>
+        <v>-0.6909047619047622</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.2637619047619039</v>
+        <v>-0.2637619047619041</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.3784761904761907</v>
+        <v>-0.3784761904761908</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.2437619047619063</v>
+        <v>-0.2437619047619055</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4933809523809526</v>
+        <v>0.4933809523809521</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0005238095238104178</v>
+        <v>-0.0005238095238096564</v>
       </c>
       <c r="M35" t="n">
         <v>-1.549714285714285</v>
@@ -38111,22 +38111,22 @@
         <v>1943</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.7380952380952367</v>
+        <v>-0.7380952380952378</v>
       </c>
       <c r="C36" t="n">
         <v>-1.023809523809524</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.427142857142859</v>
+        <v>-1.427142857142858</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.4952380952380953</v>
+        <v>-0.4952380952380955</v>
       </c>
       <c r="F36" t="n">
         <v>-2.168571428571429</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.5209047619047622</v>
+        <v>-0.520904761904762</v>
       </c>
       <c r="H36" t="n">
         <v>-1.422333333333333</v>
@@ -38135,16 +38135,16 @@
         <v>-2.051333333333333</v>
       </c>
       <c r="J36" t="n">
-        <v>-1.202333333333335</v>
+        <v>-1.202333333333334</v>
       </c>
       <c r="K36" t="n">
-        <v>-1.202333333333333</v>
+        <v>-1.202333333333334</v>
       </c>
       <c r="L36" t="n">
-        <v>0.08947619047618945</v>
+        <v>0.0894761904761902</v>
       </c>
       <c r="M36" t="n">
-        <v>0.421714285714286</v>
+        <v>0.4217142857142857</v>
       </c>
       <c r="N36" t="n">
         <v>-0.98</v>
@@ -38155,37 +38155,37 @@
         <v>1944</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3909523809523797</v>
+        <v>-0.3909523809523807</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.6766666666666666</v>
+        <v>-0.6766666666666669</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.8657142857142871</v>
+        <v>-0.8657142857142863</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1519047619047623</v>
+        <v>0.151904761904762</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.735714285714285</v>
+        <v>-1.735714285714286</v>
       </c>
       <c r="G37" t="n">
         <v>-1.388047619047619</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.5180476190476181</v>
+        <v>-0.5180476190476183</v>
       </c>
       <c r="I37" t="n">
         <v>-1.247047619047619</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.269476190476192</v>
+        <v>-1.269476190476191</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.7409047619047622</v>
+        <v>-0.7409047619047627</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.7919523809523822</v>
+        <v>-0.7919523809523815</v>
       </c>
       <c r="M37" t="n">
         <v>-2.073999999999999</v>
@@ -38199,16 +38199,16 @@
         <v>1945</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.5595238095238092</v>
+        <v>-0.5595238095238102</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.788095238095238</v>
+        <v>-0.7880952380952382</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.491428571428573</v>
+        <v>-1.491428571428572</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.8166666666666667</v>
+        <v>-0.816666666666667</v>
       </c>
       <c r="F38" t="n">
         <v>-2.19</v>
@@ -38220,16 +38220,16 @@
         <v>-1.858047619047618</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4129523809523809</v>
+        <v>0.4129523809523808</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.7094761904761919</v>
+        <v>-0.7094761904761911</v>
       </c>
       <c r="K38" t="n">
-        <v>-2.023761904761905</v>
+        <v>-2.023761904761906</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2394761904761893</v>
+        <v>0.23947619047619</v>
       </c>
       <c r="M38" t="n">
         <v>-2.628285714285714</v>
@@ -38243,37 +38243,37 @@
         <v>1946</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.53095238095238</v>
+        <v>-1.530952380952381</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.7880952380952385</v>
+        <v>-0.7880952380952387</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.4628571428571444</v>
+        <v>-0.4628571428571436</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.4595238095238093</v>
+        <v>-0.4595238095238096</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2185714285714285</v>
+        <v>-0.2185714285714287</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.3566190476190477</v>
+        <v>-0.3566190476190475</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3276666666666677</v>
+        <v>0.3276666666666675</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.672761904761905</v>
+        <v>-0.6727619047619051</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.4666190476190489</v>
+        <v>-0.4666190476190482</v>
       </c>
       <c r="K39" t="n">
-        <v>-1.352333333333333</v>
+        <v>-1.352333333333334</v>
       </c>
       <c r="L39" t="n">
-        <v>-3.074809523809525</v>
+        <v>-3.074809523809524</v>
       </c>
       <c r="M39" t="n">
         <v>-2.199714285714285</v>
@@ -38287,40 +38287,40 @@
         <v>1947</v>
       </c>
       <c r="B40" t="n">
-        <v>-2.20238095238095</v>
+        <v>-2.202380952380952</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.602380952380952</v>
+        <v>-1.602380952380953</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.4485714285714299</v>
+        <v>-0.4485714285714292</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.8309523809523809</v>
+        <v>-0.8309523809523812</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.9042857142857142</v>
+        <v>-0.9042857142857146</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.6894761904761909</v>
+        <v>-0.6894761904761906</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.6337619047619041</v>
+        <v>-0.6337619047619042</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.2627619047619049</v>
+        <v>-0.262761904761905</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.2994761904761921</v>
+        <v>-0.2994761904761913</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.4709047619047616</v>
+        <v>-0.4709047619047621</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.06480952380952461</v>
+        <v>-0.06480952380952384</v>
       </c>
       <c r="M40" t="n">
-        <v>0.2102857142857147</v>
+        <v>0.2102857142857145</v>
       </c>
       <c r="N40" t="n">
         <v>-0.68</v>
@@ -38331,40 +38331,40 @@
         <v>1948</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2933333333333348</v>
+        <v>0.2933333333333338</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.7638095238095237</v>
+        <v>-0.7638095238095239</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1185714285714268</v>
+        <v>0.1185714285714276</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5638095238095241</v>
+        <v>-0.5638095238095244</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5942857142857143</v>
+        <v>-0.5942857142857145</v>
       </c>
       <c r="G41" t="n">
         <v>-1.189476190476191</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2948095238095248</v>
+        <v>0.2948095238095246</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.6770476190476192</v>
+        <v>-0.6770476190476193</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.3280476190476208</v>
+        <v>-0.32804761904762</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.8280476190476193</v>
+        <v>-0.8280476190476198</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.679095238095239</v>
+        <v>-0.6790952380952382</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.4611428571428569</v>
+        <v>-0.4611428571428571</v>
       </c>
       <c r="N41" t="n">
         <v>-0.45</v>
@@ -38375,10 +38375,10 @@
         <v>1949</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.878095238095237</v>
+        <v>-1.878095238095238</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2076190476190471</v>
+        <v>0.2076190476190468</v>
       </c>
       <c r="D42" t="n">
         <v>-1.324285714285715</v>
@@ -38390,22 +38390,22 @@
         <v>-1.122857142857143</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.332333333333334</v>
+        <v>-0.3323333333333337</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5948095238095245</v>
+        <v>0.5948095238095243</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.9627619047619049</v>
+        <v>-0.962761904761905</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.9423333333333347</v>
+        <v>-0.9423333333333339</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8005238095238096</v>
+        <v>0.8005238095238091</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.5076666666666679</v>
+        <v>-0.5076666666666672</v>
       </c>
       <c r="M42" t="n">
         <v>-1.161142857142857</v>
@@ -38419,7 +38419,7 @@
         <v>1950</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.7352380952380942</v>
+        <v>-0.7352380952380952</v>
       </c>
       <c r="C43" t="n">
         <v>-1.64952380952381</v>
@@ -38431,28 +38431,28 @@
         <v>-1.335238095238096</v>
       </c>
       <c r="F43" t="n">
-        <v>0.877142857142857</v>
+        <v>0.8771428571428567</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.8609047619047623</v>
+        <v>-0.8609047619047621</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.7194761904761894</v>
+        <v>-0.7194761904761895</v>
       </c>
       <c r="I43" t="n">
         <v>-1.44847619047619</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.356619047619049</v>
+        <v>-0.3566190476190482</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1576666666666668</v>
+        <v>0.1576666666666662</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3637619047619035</v>
+        <v>0.3637619047619042</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.4182857142857139</v>
+        <v>-0.4182857142857141</v>
       </c>
       <c r="N43" t="n">
         <v>-0.61</v>
@@ -38463,16 +38463,16 @@
         <v>1951</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.139523809523808</v>
+        <v>-1.139523809523809</v>
       </c>
       <c r="C44" t="n">
         <v>-1.13952380952381</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.05714285714285846</v>
+        <v>-0.0571428571428577</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.09666666666666655</v>
+        <v>-0.0966666666666668</v>
       </c>
       <c r="F44" t="n">
         <v>-1.712857142857143</v>
@@ -38481,22 +38481,22 @@
         <v>-1.993761904761905</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.2951904761904754</v>
+        <v>-0.2951904761904756</v>
       </c>
       <c r="I44" t="n">
         <v>-1.595619047619048</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.3894761904761914</v>
+        <v>-0.3894761904761906</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.3751904761904762</v>
+        <v>-0.3751904761904767</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.4262380952380965</v>
+        <v>-0.4262380952380957</v>
       </c>
       <c r="M44" t="n">
-        <v>-2.036857142857142</v>
+        <v>-2.036857142857143</v>
       </c>
       <c r="N44" t="n">
         <v>-0.9399999999999999</v>
@@ -38507,40 +38507,40 @@
         <v>1952</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.053809523809523</v>
+        <v>-2.053809523809524</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.3252380952380961</v>
+        <v>-0.3252380952380963</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.12857142857143</v>
+        <v>-1.128571428571429</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.2109523809523807</v>
+        <v>-0.2109523809523809</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.8414285714285713</v>
+        <v>-0.8414285714285715</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.8223333333333337</v>
+        <v>-0.8223333333333335</v>
       </c>
       <c r="H45" t="n">
         <v>-1.523761904761904</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.05276190476190479</v>
+        <v>-0.05276190476190491</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.03233333333333478</v>
+        <v>-0.03233333333333403</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1533809523809526</v>
+        <v>0.153380952380952</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.4119523809523822</v>
+        <v>-0.4119523809523815</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.1368571428571424</v>
+        <v>-0.1368571428571426</v>
       </c>
       <c r="N45" t="n">
         <v>-0.62</v>
@@ -38551,40 +38551,40 @@
         <v>1953</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.725238095238094</v>
+        <v>-1.725238095238095</v>
       </c>
       <c r="C46" t="n">
         <v>-1.710952380952382</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.8428571428571444</v>
+        <v>-0.8428571428571436</v>
       </c>
       <c r="E46" t="n">
         <v>-1.039523809523809</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.7414285714285713</v>
+        <v>-0.7414285714285717</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.7223333333333338</v>
+        <v>-0.7223333333333335</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.6809047619047611</v>
+        <v>-0.6809047619047612</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.1384761904761904</v>
+        <v>-0.1384761904761906</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.3037619047619063</v>
+        <v>-0.3037619047619055</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.7466190476190473</v>
+        <v>-0.7466190476190478</v>
       </c>
       <c r="L46" t="n">
-        <v>0.8594761904761891</v>
+        <v>0.8594761904761897</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.3511428571428564</v>
+        <v>-0.3511428571428566</v>
       </c>
       <c r="N46" t="n">
         <v>-0.68</v>
@@ -38595,40 +38595,40 @@
         <v>1954</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.625238095238094</v>
+        <v>-0.625238095238095</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4604761904761904</v>
+        <v>0.4604761904761902</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7142857142857125</v>
+        <v>0.7142857142857133</v>
       </c>
       <c r="E47" t="n">
         <v>-1.196666666666667</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.02714285714285733</v>
+        <v>-0.02714285714285758</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4919523809523809</v>
+        <v>0.4919523809523811</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.6523333333333324</v>
+        <v>-0.6523333333333327</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.8956190476190475</v>
+        <v>-0.8956190476190476</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.7894761904761916</v>
+        <v>-0.7894761904761908</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.5609047619047617</v>
+        <v>-0.5609047619047622</v>
       </c>
       <c r="L47" t="n">
-        <v>1.388047619047618</v>
+        <v>1.388047619047619</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.05114285714285697</v>
+        <v>-0.05114285714285722</v>
       </c>
       <c r="N47" t="n">
         <v>-0.15</v>
@@ -38639,40 +38639,40 @@
         <v>1955</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2966666666666656</v>
+        <v>-0.2966666666666666</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6319047619047612</v>
+        <v>0.631904761904761</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1999999999999985</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7604761904761903</v>
+        <v>0.7604761904761901</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4442857142857145</v>
+        <v>0.4442857142857142</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.150904761904763</v>
+        <v>-1.150904761904762</v>
       </c>
       <c r="H48" t="n">
         <v>-1.10947619047619</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1186666666666668</v>
+        <v>0.1186666666666667</v>
       </c>
       <c r="J48" t="n">
-        <v>0.01052380952380792</v>
+        <v>0.01052380952380868</v>
       </c>
       <c r="K48" t="n">
-        <v>0.6533809523809521</v>
+        <v>0.6533809523809515</v>
       </c>
       <c r="L48" t="n">
-        <v>0.002333333333332379</v>
+        <v>0.00233333333333314</v>
       </c>
       <c r="M48" t="n">
-        <v>0.2774285714285715</v>
+        <v>0.2774285714285712</v>
       </c>
       <c r="N48" t="n">
         <v>0.05</v>
@@ -38683,40 +38683,40 @@
         <v>1956</v>
       </c>
       <c r="B49" t="n">
-        <v>1.78904761904762</v>
+        <v>1.789047619047619</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.2395238095238099</v>
+        <v>-0.2395238095238102</v>
       </c>
       <c r="D49" t="n">
         <v>-1.200000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>2.303333333333334</v>
+        <v>2.303333333333333</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.112857142857143</v>
+        <v>-0.1128571428571432</v>
       </c>
       <c r="G49" t="n">
-        <v>0.420523809523809</v>
+        <v>0.4205238095238092</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.3094761904761897</v>
+        <v>-0.3094761904761898</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.7527619047619047</v>
+        <v>-0.7527619047619049</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.003761904761906314</v>
+        <v>-0.003761904761905553</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2962380952380949</v>
+        <v>0.2962380952380944</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2023333333333319</v>
+        <v>0.2023333333333327</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.2368571428571425</v>
+        <v>-0.2368571428571428</v>
       </c>
       <c r="N49" t="n">
         <v>0.18</v>
@@ -38727,37 +38727,37 @@
         <v>1957</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.2252380952380937</v>
+        <v>-0.2252380952380947</v>
       </c>
       <c r="C50" t="n">
-        <v>0.56047619047619</v>
+        <v>0.5604761904761898</v>
       </c>
       <c r="D50" t="n">
-        <v>1.07142857142857</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5890476190476195</v>
+        <v>0.5890476190476193</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.2271428571428571</v>
+        <v>-0.2271428571428574</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.4794761904761909</v>
+        <v>-0.4794761904761907</v>
       </c>
       <c r="H50" t="n">
         <v>-1.152333333333333</v>
       </c>
       <c r="I50" t="n">
-        <v>0.06152380952380935</v>
+        <v>0.06152380952380922</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.3609047619047634</v>
+        <v>-0.3609047619047627</v>
       </c>
       <c r="K50" t="n">
-        <v>-1.08947619047619</v>
+        <v>-1.089476190476191</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.4262380952380965</v>
+        <v>-0.4262380952380957</v>
       </c>
       <c r="M50" t="n">
         <v>-1.665428571428571</v>
@@ -38771,40 +38771,40 @@
         <v>1958</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.51095238095238</v>
+        <v>-1.510952380952381</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5890476190476187</v>
+        <v>0.5890476190476185</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5285714285714261</v>
+        <v>0.5285714285714269</v>
       </c>
       <c r="E51" t="n">
         <v>-1.410952380952381</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.7557142857142856</v>
+        <v>-0.7557142857142859</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.7509047619047624</v>
+        <v>-0.7509047619047621</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.50947619047619</v>
+        <v>-1.509476190476189</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.509904761904762</v>
+        <v>-0.5099047619047621</v>
       </c>
       <c r="J51" t="n">
-        <v>-1.075190476190478</v>
+        <v>-1.075190476190477</v>
       </c>
       <c r="K51" t="n">
-        <v>0.9533809523809522</v>
+        <v>0.9533809523809518</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7594761904761894</v>
+        <v>0.7594761904761901</v>
       </c>
       <c r="M51" t="n">
-        <v>0.5060000000000002</v>
+        <v>0.506</v>
       </c>
       <c r="N51" t="n">
         <v>-0.35</v>
@@ -38815,16 +38815,16 @@
         <v>1959</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2747619047619058</v>
+        <v>0.2747619047619048</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.5252380952380958</v>
+        <v>-0.5252380952380962</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05714285714285567</v>
+        <v>0.05714285714285643</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2252380952380949</v>
+        <v>-0.2252380952380952</v>
       </c>
       <c r="F52" t="n">
         <v>-2.97</v>
@@ -38833,22 +38833,22 @@
         <v>-1.293761904761905</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.5809047619047611</v>
+        <v>-0.5809047619047613</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.5527619047619049</v>
+        <v>-0.552761904761905</v>
       </c>
       <c r="J52" t="n">
-        <v>0.02480952380952241</v>
+        <v>0.02480952380952317</v>
       </c>
       <c r="K52" t="n">
-        <v>-1.48947619047619</v>
+        <v>-1.489476190476191</v>
       </c>
       <c r="L52" t="n">
-        <v>0.1166190476190463</v>
+        <v>0.116619047619047</v>
       </c>
       <c r="M52" t="n">
-        <v>0.1202857142857149</v>
+        <v>0.1202857142857146</v>
       </c>
       <c r="N52" t="n">
         <v>-0.59</v>
@@ -38859,40 +38859,40 @@
         <v>1960</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1747619047619062</v>
+        <v>0.1747619047619052</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.7109523809523814</v>
+        <v>-0.7109523809523817</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.200000000000002</v>
+        <v>-1.200000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.6966666666666662</v>
+        <v>-0.6966666666666664</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.2414285714285714</v>
+        <v>-0.2414285714285716</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1080476190476195</v>
+        <v>-0.1080476190476193</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.1523333333333325</v>
+        <v>-0.1523333333333326</v>
       </c>
       <c r="I53" t="n">
         <v>-1.009904761904762</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.3894761904761922</v>
+        <v>-0.3894761904761914</v>
       </c>
       <c r="K53" t="n">
-        <v>0.481952380952381</v>
+        <v>0.4819523809523805</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.3162380952380963</v>
+        <v>-0.3162380952380955</v>
       </c>
       <c r="M53" t="n">
-        <v>-1.469714285714285</v>
+        <v>-1.469714285714286</v>
       </c>
       <c r="N53" t="n">
         <v>-0.47</v>
@@ -38903,40 +38903,40 @@
         <v>1961</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.7866666666666655</v>
+        <v>-0.7866666666666665</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.6438095238095245</v>
+        <v>-0.6438095238095247</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.31857142857143</v>
+        <v>-1.318571428571429</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5438095238095239</v>
+        <v>-0.5438095238095241</v>
       </c>
       <c r="F54" t="n">
         <v>-1.074285714285714</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.9980476190476196</v>
+        <v>-0.9980476190476193</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.8423333333333325</v>
+        <v>-0.8423333333333326</v>
       </c>
       <c r="I54" t="n">
         <v>-1.114190476190476</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.9794761904761921</v>
+        <v>-0.9794761904761913</v>
       </c>
       <c r="K54" t="n">
         <v>1.520523809523809</v>
       </c>
       <c r="L54" t="n">
-        <v>0.3694761904761896</v>
+        <v>0.3694761904761903</v>
       </c>
       <c r="M54" t="n">
-        <v>0.9302857142857146</v>
+        <v>0.9302857142857144</v>
       </c>
       <c r="N54" t="n">
         <v>-0.46</v>
@@ -38947,40 +38947,40 @@
         <v>1962</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9419047619047632</v>
+        <v>0.9419047619047622</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.6723809523809526</v>
+        <v>-0.672380952380953</v>
       </c>
       <c r="D55" t="n">
-        <v>0.09571428571428393</v>
+        <v>0.09571428571428468</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4295238095238094</v>
+        <v>-0.4295238095238097</v>
       </c>
       <c r="F55" t="n">
         <v>1.168571428571429</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4448095238095234</v>
+        <v>0.4448095238095236</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3290952380952388</v>
+        <v>0.3290952380952387</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.3570476190476191</v>
+        <v>-0.3570476190476192</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.4366190476190491</v>
+        <v>-0.4366190476190483</v>
       </c>
       <c r="K55" t="n">
-        <v>1.12052380952381</v>
+        <v>1.120523809523809</v>
       </c>
       <c r="L55" t="n">
-        <v>0.1551904761904755</v>
+        <v>0.1551904761904763</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.2982857142857142</v>
+        <v>-0.2982857142857144</v>
       </c>
       <c r="N55" t="n">
         <v>0.17</v>
@@ -38991,40 +38991,40 @@
         <v>1963</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.086666666666666</v>
+        <v>-0.08666666666666702</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3419047619047615</v>
+        <v>0.3419047619047613</v>
       </c>
       <c r="D56" t="n">
         <v>-1.01857142857143</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.429523809523809</v>
+        <v>-1.42952380952381</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8885714285714287</v>
+        <v>-0.8885714285714289</v>
       </c>
       <c r="G56" t="n">
         <v>-1.183761904761905</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.7709047619047613</v>
+        <v>-0.7709047619047614</v>
       </c>
       <c r="I56" t="n">
         <v>-1.557047619047619</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.5080476190476205</v>
+        <v>-0.5080476190476197</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2919523809523812</v>
+        <v>0.2919523809523807</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.144809523809525</v>
+        <v>-1.144809523809524</v>
       </c>
       <c r="M56" t="n">
-        <v>-1.369714285714285</v>
+        <v>-1.369714285714286</v>
       </c>
       <c r="N56" t="n">
         <v>-0.78</v>
@@ -39035,40 +39035,40 @@
         <v>1964</v>
       </c>
       <c r="B57" t="n">
-        <v>-2.013809523809523</v>
+        <v>-2.013809523809524</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.5423809523809526</v>
+        <v>-0.542380952380953</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.5742857142857163</v>
+        <v>-0.5742857142857155</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.9423809523809522</v>
+        <v>-0.9423809523809525</v>
       </c>
       <c r="F57" t="n">
         <v>-1.332857142857143</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.8994761904761911</v>
+        <v>-0.8994761904761909</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1705238095238101</v>
+        <v>0.17052380952381</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.829904761904762</v>
+        <v>-0.8299047619047621</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.8951904761904773</v>
+        <v>-0.8951904761904765</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.5094761904761904</v>
+        <v>-0.5094761904761909</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.4890952380952392</v>
+        <v>-0.4890952380952385</v>
       </c>
       <c r="M57" t="n">
-        <v>0.2288571428571431</v>
+        <v>0.2288571428571429</v>
       </c>
       <c r="N57" t="n">
         <v>-0.72</v>
@@ -39079,22 +39079,22 @@
         <v>1965</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6833333333333348</v>
+        <v>0.6833333333333338</v>
       </c>
       <c r="C58" t="n">
         <v>-1.430952380952381</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.6914285714285727</v>
+        <v>-0.6914285714285719</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7738095238095235</v>
+        <v>-0.7738095238095237</v>
       </c>
       <c r="F58" t="n">
         <v>-1.29</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.7709047619047623</v>
+        <v>-0.7709047619047621</v>
       </c>
       <c r="H58" t="n">
         <v>-1.586619047619047</v>
@@ -39103,16 +39103,16 @@
         <v>-1.101333333333333</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.4809047619047629</v>
+        <v>-0.4809047619047622</v>
       </c>
       <c r="K58" t="n">
-        <v>-1.395190476190476</v>
+        <v>-1.395190476190477</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.7605238095238107</v>
+        <v>-0.7605238095238099</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.6854285714285709</v>
+        <v>-0.6854285714285712</v>
       </c>
       <c r="N58" t="n">
         <v>-0.86</v>
@@ -39129,34 +39129,34 @@
         <v>1.097619047619047</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5942857142857125</v>
+        <v>0.5942857142857133</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.08809523809523766</v>
+        <v>-0.08809523809523791</v>
       </c>
       <c r="F59" t="n">
         <v>-1.747142857142857</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.7280476190476195</v>
+        <v>-0.7280476190476193</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.8723333333333325</v>
+        <v>-0.8723333333333326</v>
       </c>
       <c r="I59" t="n">
-        <v>-1.45847619047619</v>
+        <v>-1.458476190476191</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.666619047619049</v>
+        <v>-0.6666190476190482</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.3809047619047617</v>
+        <v>-0.3809047619047622</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.7605238095238105</v>
+        <v>-0.7605238095238097</v>
       </c>
       <c r="M59" t="n">
-        <v>-1.056857142857142</v>
+        <v>-1.056857142857143</v>
       </c>
       <c r="N59" t="n">
         <v>-0.59</v>
@@ -39167,40 +39167,40 @@
         <v>1967</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.988095238095237</v>
+        <v>-0.988095238095238</v>
       </c>
       <c r="C60" t="n">
         <v>-1.088095238095239</v>
       </c>
       <c r="D60" t="n">
-        <v>0.122857142857141</v>
+        <v>0.1228571428571418</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01190476190476199</v>
+        <v>0.01190476190476174</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.6042857142857141</v>
+        <v>-0.6042857142857143</v>
       </c>
       <c r="G60" t="n">
         <v>-1.285190476190477</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.900904761904761</v>
+        <v>-0.9009047619047611</v>
       </c>
       <c r="I60" t="n">
-        <v>0.884380952380952</v>
+        <v>0.8843809523809519</v>
       </c>
       <c r="J60" t="n">
-        <v>-1.209476190476192</v>
+        <v>-1.209476190476191</v>
       </c>
       <c r="K60" t="n">
-        <v>0.3190952380952378</v>
+        <v>0.3190952380952373</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.6105238095238106</v>
+        <v>-0.6105238095238098</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.3068571428571426</v>
+        <v>-0.3068571428571428</v>
       </c>
       <c r="N60" t="n">
         <v>-0.47</v>
@@ -39211,37 +39211,37 @@
         <v>1968</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.9952380952380947</v>
+        <v>-0.9952380952380958</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.6095238095238099</v>
+        <v>-0.6095238095238101</v>
       </c>
       <c r="D61" t="n">
-        <v>1.944285714285712</v>
+        <v>1.944285714285713</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4095238095238093</v>
+        <v>-0.4095238095238096</v>
       </c>
       <c r="F61" t="n">
-        <v>0.05999999999999999</v>
+        <v>0.05999999999999973</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4351904761904767</v>
+        <v>-0.4351904761904764</v>
       </c>
       <c r="H61" t="n">
         <v>-1.27947619047619</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.1656190476190476</v>
+        <v>-0.1656190476190478</v>
       </c>
       <c r="J61" t="n">
-        <v>-1.202333333333335</v>
+        <v>-1.202333333333334</v>
       </c>
       <c r="K61" t="n">
         <v>-1.116619047619048</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.796238095238096</v>
+        <v>-0.7962380952380952</v>
       </c>
       <c r="M61" t="n">
         <v>-1.378285714285714</v>
@@ -39255,19 +39255,19 @@
         <v>1969</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.8952380952380941</v>
+        <v>-0.8952380952380951</v>
       </c>
       <c r="C62" t="n">
         <v>-1.452380952380953</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.2128571428571442</v>
+        <v>-0.2128571428571434</v>
       </c>
       <c r="E62" t="n">
         <v>-1.180952380952381</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8542857142857141</v>
+        <v>-0.8542857142857143</v>
       </c>
       <c r="G62" t="n">
         <v>-1.906619047619048</v>
@@ -39276,16 +39276,16 @@
         <v>-1.37947619047619</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.4513333333333335</v>
+        <v>-0.4513333333333336</v>
       </c>
       <c r="J62" t="n">
-        <v>0.8833809523809509</v>
+        <v>0.8833809523809517</v>
       </c>
       <c r="K62" t="n">
         <v>-1.288047619047619</v>
       </c>
       <c r="L62" t="n">
-        <v>0.8037619047619037</v>
+        <v>0.8037619047619045</v>
       </c>
       <c r="M62" t="n">
         <v>1.221714285714286</v>
@@ -39299,40 +39299,40 @@
         <v>1970</v>
       </c>
       <c r="B63" t="n">
-        <v>1.004761904761906</v>
+        <v>1.004761904761905</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.6380952380952384</v>
+        <v>-0.6380952380952386</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6871428571428559</v>
+        <v>0.6871428571428567</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4761904761904763</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="F63" t="n">
         <v>-1.582857142857143</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.006619047619048223</v>
+        <v>-0.006619047619047969</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4919523809523818</v>
+        <v>0.4919523809523816</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1486666666666665</v>
+        <v>0.1486666666666664</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.05947619047619186</v>
+        <v>-0.05947619047619109</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1548095238095242</v>
+        <v>0.1548095238095237</v>
       </c>
       <c r="L63" t="n">
-        <v>0.4466190476190466</v>
+        <v>0.4466190476190474</v>
       </c>
       <c r="M63" t="n">
-        <v>0.421714285714286</v>
+        <v>0.4217142857142857</v>
       </c>
       <c r="N63" t="n">
         <v>0.13</v>
@@ -39343,40 +39343,40 @@
         <v>1971</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5333333333333344</v>
+        <v>0.5333333333333334</v>
       </c>
       <c r="C64" t="n">
         <v>1.09047619047619</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4585714285714272</v>
+        <v>0.4585714285714279</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4476190476190478</v>
+        <v>0.4476190476190475</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6171428571428572</v>
+        <v>0.6171428571428569</v>
       </c>
       <c r="G64" t="n">
-        <v>1.32195238095238</v>
+        <v>1.321952380952381</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.5080476190476181</v>
+        <v>-0.5080476190476182</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3915238095238092</v>
+        <v>0.3915238095238091</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.173761904761906</v>
+        <v>-0.1737619047619052</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.2451904761904764</v>
+        <v>-0.2451904761904769</v>
       </c>
       <c r="L64" t="n">
-        <v>0.04661904761904623</v>
+        <v>0.04661904761904699</v>
       </c>
       <c r="M64" t="n">
-        <v>0.3931428571428577</v>
+        <v>0.3931428571428575</v>
       </c>
       <c r="N64" t="n">
         <v>0.36</v>
@@ -39387,40 +39387,40 @@
         <v>1972</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.038095238095237</v>
+        <v>-1.038095238095238</v>
       </c>
       <c r="C65" t="n">
         <v>-1.338095238095238</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9299999999999982</v>
+        <v>0.9299999999999989</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1333333333333331</v>
+        <v>0.1333333333333329</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.011428571428571</v>
+        <v>-1.011428571428572</v>
       </c>
       <c r="G65" t="n">
         <v>-2.106619047619048</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.2651904761904754</v>
+        <v>-0.2651904761904755</v>
       </c>
       <c r="I65" t="n">
         <v>-1.651333333333334</v>
       </c>
       <c r="J65" t="n">
-        <v>0.583380952380951</v>
+        <v>0.5833809523809518</v>
       </c>
       <c r="K65" t="n">
-        <v>0.1976666666666667</v>
+        <v>0.1976666666666662</v>
       </c>
       <c r="L65" t="n">
         <v>1.246619047619047</v>
       </c>
       <c r="M65" t="n">
-        <v>-1.692571428571428</v>
+        <v>-1.692571428571429</v>
       </c>
       <c r="N65" t="n">
         <v>-0.5</v>
@@ -39431,40 +39431,40 @@
         <v>1973</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.4238095238095226</v>
+        <v>-0.4238095238095236</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2476190476190472</v>
+        <v>0.247619047619047</v>
       </c>
       <c r="D66" t="n">
-        <v>0.158571428571427</v>
+        <v>0.1585714285714277</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.1523809523809523</v>
+        <v>-0.1523809523809526</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4114285714285713</v>
+        <v>-0.4114285714285715</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03519047619047682</v>
+        <v>-0.03519047619047656</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.7937619047619037</v>
+        <v>-0.7937619047619038</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.4370476190476191</v>
+        <v>-0.4370476190476192</v>
       </c>
       <c r="J66" t="n">
-        <v>0.3119523809523793</v>
+        <v>0.31195238095238</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1262380952380952</v>
+        <v>0.1262380952380947</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5466190476190462</v>
+        <v>0.546619047619047</v>
       </c>
       <c r="M66" t="n">
-        <v>0.2217142857142864</v>
+        <v>0.2217142857142862</v>
       </c>
       <c r="N66" t="n">
         <v>-0.05</v>
@@ -39475,40 +39475,40 @@
         <v>1974</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.066666666666665</v>
+        <v>-1.066666666666666</v>
       </c>
       <c r="C67" t="n">
         <v>1.161904761904762</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.370000000000002</v>
+        <v>-1.370000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4190476190476193</v>
+        <v>0.4190476190476191</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4257142857142855</v>
+        <v>-0.4257142857142858</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5209047619047623</v>
+        <v>-0.5209047619047621</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2490952380952388</v>
+        <v>0.2490952380952386</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.7513333333333334</v>
+        <v>-0.7513333333333335</v>
       </c>
       <c r="J67" t="n">
-        <v>0.354809523809522</v>
+        <v>0.3548095238095227</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.3023333333333331</v>
+        <v>-0.3023333333333336</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9466190476190468</v>
+        <v>0.9466190476190476</v>
       </c>
       <c r="M67" t="n">
-        <v>1.336000000000001</v>
+        <v>1.336</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -39519,40 +39519,40 @@
         <v>1975</v>
       </c>
       <c r="B68" t="n">
-        <v>1.376190476190477</v>
+        <v>1.376190476190476</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3761904761904759</v>
+        <v>0.3761904761904756</v>
       </c>
       <c r="D68" t="n">
-        <v>1.015714285714285</v>
+        <v>1.015714285714286</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6333333333333336</v>
+        <v>0.6333333333333334</v>
       </c>
       <c r="F68" t="n">
-        <v>0.04571428571428576</v>
+        <v>0.0457142857142855</v>
       </c>
       <c r="G68" t="n">
         <v>-1.320904761904762</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.8223333333333324</v>
+        <v>-0.8223333333333326</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.02276190476190517</v>
+        <v>-0.0227619047619053</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.3880476190476203</v>
+        <v>-0.3880476190476195</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.2023333333333332</v>
+        <v>-0.2023333333333337</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.781952380952382</v>
+        <v>-0.7819523809523812</v>
       </c>
       <c r="M68" t="n">
-        <v>-1.506857142857142</v>
+        <v>-1.506857142857143</v>
       </c>
       <c r="N68" t="n">
         <v>-0.13</v>
@@ -39563,16 +39563,16 @@
         <v>1976</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.035238095238094</v>
+        <v>-1.035238095238095</v>
       </c>
       <c r="C69" t="n">
         <v>-3.063809523809525</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.06714285714285902</v>
+        <v>-0.06714285714285825</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3695238095238092</v>
+        <v>-0.3695238095238094</v>
       </c>
       <c r="F69" t="n">
         <v>-1</v>
@@ -39581,22 +39581,22 @@
         <v>-1.352333333333334</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.6537619047619039</v>
+        <v>-0.653761904761904</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.239904761904762</v>
+        <v>-0.2399047619047621</v>
       </c>
       <c r="J69" t="n">
-        <v>-1.076619047619049</v>
+        <v>-1.076619047619048</v>
       </c>
       <c r="K69" t="n">
         <v>-1.305190476190476</v>
       </c>
       <c r="L69" t="n">
-        <v>-1.513380952380954</v>
+        <v>-1.513380952380953</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.4668571428571427</v>
+        <v>-0.466857142857143</v>
       </c>
       <c r="N69" t="n">
         <v>-1.01</v>
@@ -39607,37 +39607,37 @@
         <v>1977</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.812380952380951</v>
+        <v>-1.812380952380952</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.8695238095238097</v>
+        <v>-0.8695238095238099</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05571428571428377</v>
+        <v>0.05571428571428453</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2266666666666668</v>
+        <v>-0.2266666666666671</v>
       </c>
       <c r="F70" t="n">
         <v>-2.271428571428571</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5809047619047624</v>
+        <v>-0.580904761904762</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.1823333333333327</v>
+        <v>-0.1823333333333328</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.5399047619047622</v>
+        <v>-0.5399047619047623</v>
       </c>
       <c r="J70" t="n">
-        <v>-2.262333333333335</v>
+        <v>-2.262333333333334</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.6480476190476191</v>
+        <v>-0.6480476190476195</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.970523809523811</v>
+        <v>-0.9705238095238103</v>
       </c>
       <c r="M70" t="n">
         <v>-1.324</v>
@@ -39651,40 +39651,40 @@
         <v>1978</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2590476190476202</v>
+        <v>0.2590476190476192</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6161904761904761</v>
+        <v>0.6161904761904758</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7414285714285701</v>
+        <v>0.7414285714285709</v>
       </c>
       <c r="E71" t="n">
         <v>2.001904761904762</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.3571428571428572</v>
+        <v>-0.3571428571428574</v>
       </c>
       <c r="G71" t="n">
         <v>-1.109476190476191</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3033809523809534</v>
+        <v>0.3033809523809533</v>
       </c>
       <c r="I71" t="n">
-        <v>0.03152380952380961</v>
+        <v>0.03152380952380947</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.2766190476190492</v>
+        <v>-0.2766190476190484</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.9337619047619048</v>
+        <v>-0.9337619047619052</v>
       </c>
       <c r="L71" t="n">
-        <v>0.07233333333333215</v>
+        <v>0.07233333333333292</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.4239999999999992</v>
+        <v>-0.4239999999999995</v>
       </c>
       <c r="N71" t="n">
         <v>0.08</v>
@@ -39695,40 +39695,40 @@
         <v>1979</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.04095238095237974</v>
+        <v>-0.04095238095238075</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.740952380952381</v>
+        <v>-0.7409523809523814</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4557142857142839</v>
+        <v>0.4557142857142846</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3409523809523812</v>
+        <v>-0.3409523809523815</v>
       </c>
       <c r="F72" t="n">
         <v>-1.114285714285715</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2190952380952375</v>
+        <v>0.2190952380952378</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1605238095238103</v>
+        <v>0.1605238095238102</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.9541904761904761</v>
+        <v>-0.9541904761904763</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.03376190476190618</v>
+        <v>-0.03376190476190542</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.2909047619047617</v>
+        <v>-0.2909047619047622</v>
       </c>
       <c r="L72" t="n">
-        <v>0.6437619047619035</v>
+        <v>0.6437619047619043</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.2239999999999997</v>
+        <v>-0.2239999999999999</v>
       </c>
       <c r="N72" t="n">
         <v>-0.19</v>
@@ -39739,40 +39739,40 @@
         <v>1980</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.4695238095238086</v>
+        <v>-0.4695238095238096</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.8409523809523812</v>
+        <v>-0.8409523809523815</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.201428571428573</v>
+        <v>-1.201428571428572</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.6552380952380952</v>
+        <v>-0.6552380952380954</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.3285714285714284</v>
+        <v>-0.3285714285714287</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5951904761904768</v>
+        <v>-0.5951904761904766</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.5680476190476184</v>
+        <v>-0.5680476190476185</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.4684761904761907</v>
+        <v>-0.4684761904761908</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2948095238095225</v>
+        <v>0.2948095238095232</v>
       </c>
       <c r="K73" t="n">
-        <v>0.794809523809524</v>
+        <v>0.7948095238095235</v>
       </c>
       <c r="L73" t="n">
-        <v>-1.184809523809525</v>
+        <v>-1.184809523809524</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.6097142857142855</v>
+        <v>-0.6097142857142858</v>
       </c>
       <c r="N73" t="n">
         <v>-0.49</v>
@@ -39783,40 +39783,40 @@
         <v>1981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6304761904761919</v>
+        <v>0.6304761904761909</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1447619047619038</v>
+        <v>0.1447619047619035</v>
       </c>
       <c r="D74" t="n">
-        <v>1.112857142857141</v>
+        <v>1.112857142857142</v>
       </c>
       <c r="E74" t="n">
         <v>1.187619047619048</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.9428571428571431</v>
+        <v>-0.9428571428571433</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4476666666666663</v>
+        <v>0.4476666666666665</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.2537619047619039</v>
+        <v>-0.253761904761904</v>
       </c>
       <c r="I74" t="n">
         <v>-1.354190476190476</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.6766190476190488</v>
+        <v>-0.676619047619048</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.2051904761904762</v>
+        <v>-0.2051904761904768</v>
       </c>
       <c r="L74" t="n">
-        <v>0.258047619047618</v>
+        <v>0.2580476190476187</v>
       </c>
       <c r="M74" t="n">
-        <v>1.047428571428572</v>
+        <v>1.047428571428571</v>
       </c>
       <c r="N74" t="n">
         <v>0.12</v>
@@ -39827,19 +39827,19 @@
         <v>1982</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.3838095238095222</v>
+        <v>-0.3838095238095232</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4590476190476188</v>
+        <v>0.4590476190476185</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.05857142857143037</v>
+        <v>-0.05857142857142961</v>
       </c>
       <c r="E75" t="n">
         <v>-1.526666666666667</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3142857142857142</v>
+        <v>-0.3142857142857144</v>
       </c>
       <c r="G75" t="n">
         <v>-1.152333333333334</v>
@@ -39848,19 +39848,19 @@
         <v>-1.082333333333332</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.05419047619047657</v>
+        <v>-0.05419047619047669</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.762333333333335</v>
+        <v>-0.7623333333333342</v>
       </c>
       <c r="K75" t="n">
-        <v>-1.562333333333333</v>
+        <v>-1.562333333333334</v>
       </c>
       <c r="L75" t="n">
-        <v>0.7009047619047613</v>
+        <v>0.700904761904762</v>
       </c>
       <c r="M75" t="n">
-        <v>-1.766857142857142</v>
+        <v>-1.766857142857143</v>
       </c>
       <c r="N75" t="n">
         <v>-0.63</v>
@@ -39871,37 +39871,37 @@
         <v>1983</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.583809523809522</v>
+        <v>-1.583809523809524</v>
       </c>
       <c r="C76" t="n">
         <v>-1.698095238095238</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.3157142857142871</v>
+        <v>-0.3157142857142863</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6980952380952379</v>
+        <v>-0.6980952380952381</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9142857142857144</v>
+        <v>-0.9142857142857146</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4951904761904767</v>
+        <v>-0.4951904761904764</v>
       </c>
       <c r="H76" t="n">
         <v>-1.13947619047619</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.2684761904761907</v>
+        <v>-0.2684761904761909</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.1480476190476203</v>
+        <v>-0.1480476190476196</v>
       </c>
       <c r="K76" t="n">
-        <v>0.2519523809523808</v>
+        <v>0.2519523809523803</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.227666666666668</v>
+        <v>-0.2276666666666673</v>
       </c>
       <c r="M76" t="n">
         <v>-1.252571428571428</v>
@@ -39915,40 +39915,40 @@
         <v>1984</v>
       </c>
       <c r="B77" t="n">
-        <v>-2.155238095238094</v>
+        <v>-2.155238095238095</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.8123809523809528</v>
+        <v>-0.812380952380953</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7985714285714268</v>
+        <v>0.7985714285714275</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.1980952380952381</v>
+        <v>-0.1980952380952384</v>
       </c>
       <c r="F77" t="n">
         <v>-1.442857142857143</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4333809523809518</v>
+        <v>0.433380952380952</v>
       </c>
       <c r="H77" t="n">
-        <v>0.5462380952380957</v>
+        <v>0.5462380952380956</v>
       </c>
       <c r="I77" t="n">
-        <v>0.7886666666666666</v>
+        <v>0.7886666666666665</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.262333333333335</v>
+        <v>-0.2623333333333342</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.2480476190476192</v>
+        <v>-0.2480476190476197</v>
       </c>
       <c r="L77" t="n">
         <v>1.158047619047618</v>
       </c>
       <c r="M77" t="n">
-        <v>0.6760000000000002</v>
+        <v>0.6759999999999999</v>
       </c>
       <c r="N77" t="n">
         <v>-0.06</v>
@@ -39959,40 +39959,40 @@
         <v>1985</v>
       </c>
       <c r="B78" t="n">
-        <v>1.201904761904763</v>
+        <v>1.201904761904762</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.1409523809523817</v>
+        <v>-0.1409523809523819</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.3157142857142871</v>
+        <v>-0.3157142857142863</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3161904761904766</v>
+        <v>0.3161904761904764</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.6285714285714289</v>
+        <v>-0.6285714285714291</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6905238095238093</v>
+        <v>0.6905238095238095</v>
       </c>
       <c r="H78" t="n">
-        <v>0.7319523809523816</v>
+        <v>0.7319523809523815</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.5684761904761906</v>
+        <v>-0.5684761904761907</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3233809523809515</v>
+        <v>0.3233809523809522</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.8194761904761901</v>
+        <v>-0.8194761904761906</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.2133809523809533</v>
+        <v>-0.2133809523809525</v>
       </c>
       <c r="M78" t="n">
-        <v>0.7617142857142863</v>
+        <v>0.7617142857142861</v>
       </c>
       <c r="N78" t="n">
         <v>0.11</v>
@@ -40003,22 +40003,22 @@
         <v>1986</v>
       </c>
       <c r="B79" t="n">
-        <v>1.344761904761906</v>
+        <v>1.344761904761905</v>
       </c>
       <c r="C79" t="n">
-        <v>0.001904761904761441</v>
+        <v>0.001904761904761187</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.2300000000000017</v>
+        <v>-0.2300000000000009</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9161904761904763</v>
+        <v>0.916190476190476</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4857142857142855</v>
+        <v>-0.4857142857142858</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3809047619047622</v>
+        <v>-0.380904761904762</v>
       </c>
       <c r="H79" t="n">
         <v>-1.010904761904761</v>
@@ -40027,16 +40027,16 @@
         <v>-1.168476190476191</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.5051904761904772</v>
+        <v>-0.5051904761904764</v>
       </c>
       <c r="K79" t="n">
-        <v>0.3805238095238094</v>
+        <v>0.3805238095238089</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1151904761904749</v>
+        <v>0.1151904761904756</v>
       </c>
       <c r="M79" t="n">
-        <v>0.004571428571429083</v>
+        <v>0.004571428571428829</v>
       </c>
       <c r="N79" t="n">
         <v>-0.08</v>
@@ -40047,40 +40047,40 @@
         <v>1987</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7304761904761917</v>
+        <v>0.7304761904761907</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.8552380952380957</v>
+        <v>-0.8552380952380959</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.044285714285716</v>
+        <v>-1.044285714285715</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2552380952380948</v>
+        <v>-0.255238095238095</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2428571428571427</v>
+        <v>0.2428571428571425</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04480952380952313</v>
+        <v>0.04480952380952338</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.05661904761904665</v>
+        <v>-0.05661904761904678</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9858095238095238</v>
+        <v>0.9858095238095237</v>
       </c>
       <c r="J80" t="n">
-        <v>0.06338095238095091</v>
+        <v>0.06338095238095168</v>
       </c>
       <c r="K80" t="n">
-        <v>0.1776666666666666</v>
+        <v>0.1776666666666661</v>
       </c>
       <c r="L80" t="n">
-        <v>0.5551904761904751</v>
+        <v>0.5551904761904759</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.226857142857142</v>
+        <v>-0.2268571428571422</v>
       </c>
       <c r="N80" t="n">
         <v>0.03</v>
@@ -40091,37 +40091,37 @@
         <v>1988</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.2438095238095226</v>
+        <v>-0.2438095238095236</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1276190476190475</v>
+        <v>0.1276190476190473</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.961428571428573</v>
+        <v>-0.9614285714285723</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.372380952380952</v>
+        <v>-1.372380952380953</v>
       </c>
       <c r="F81" t="n">
         <v>-1.317142857142857</v>
       </c>
       <c r="G81" t="n">
-        <v>0.259095238095238</v>
+        <v>0.2590952380952383</v>
       </c>
       <c r="H81" t="n">
-        <v>0.786238095238096</v>
+        <v>0.7862380952380958</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2858095238095238</v>
+        <v>0.2858095238095237</v>
       </c>
       <c r="J81" t="n">
-        <v>1.277666666666665</v>
+        <v>1.277666666666666</v>
       </c>
       <c r="K81" t="n">
         <v>1.020523809523809</v>
       </c>
       <c r="L81" t="n">
-        <v>1.069476190476189</v>
+        <v>1.06947619047619</v>
       </c>
       <c r="M81" t="n">
         <v>1.316</v>
@@ -40135,40 +40135,40 @@
         <v>1989</v>
       </c>
       <c r="B82" t="n">
-        <v>1.19904761904762</v>
+        <v>1.199047619047619</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.4152380952380965</v>
+        <v>-0.4152380952380967</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5528571428571407</v>
+        <v>0.5528571428571415</v>
       </c>
       <c r="E82" t="n">
-        <v>0.07047619047619083</v>
+        <v>0.07047619047619058</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.1885714285714286</v>
+        <v>-0.1885714285714289</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.05519047619047652</v>
+        <v>-0.05519047619047627</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.8566190476190467</v>
+        <v>-0.8566190476190468</v>
       </c>
       <c r="I82" t="n">
-        <v>0.300095238095238</v>
+        <v>0.3000952380952379</v>
       </c>
       <c r="J82" t="n">
-        <v>0.7633809523809513</v>
+        <v>0.7633809523809519</v>
       </c>
       <c r="K82" t="n">
-        <v>0.9348095238095239</v>
+        <v>0.9348095238095233</v>
       </c>
       <c r="L82" t="n">
-        <v>0.9266190476190468</v>
+        <v>0.9266190476190476</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.5125714285714285</v>
+        <v>-0.5125714285714287</v>
       </c>
       <c r="N82" t="n">
         <v>0.23</v>
@@ -40179,40 +40179,40 @@
         <v>1990</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.0295238095238083</v>
+        <v>-0.02952380952380932</v>
       </c>
       <c r="C83" t="n">
         <v>1.441904761904761</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8814285714285701</v>
+        <v>0.8814285714285709</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4561904761904764</v>
+        <v>0.4561904761904762</v>
       </c>
       <c r="F83" t="n">
-        <v>0.225714285714286</v>
+        <v>0.2257142857142857</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.183761904761905</v>
+        <v>-0.1837619047619048</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1719523809523816</v>
+        <v>0.1719523809523815</v>
       </c>
       <c r="I83" t="n">
-        <v>0.08580952380952388</v>
+        <v>0.08580952380952375</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.6651904761904773</v>
+        <v>-0.6651904761904766</v>
       </c>
       <c r="K83" t="n">
-        <v>0.1919523809523811</v>
+        <v>0.1919523809523806</v>
       </c>
       <c r="L83" t="n">
-        <v>0.09804761904761783</v>
+        <v>0.09804761904761859</v>
       </c>
       <c r="M83" t="n">
-        <v>0.2731428571428572</v>
+        <v>0.273142857142857</v>
       </c>
       <c r="N83" t="n">
         <v>0.25</v>
@@ -40223,40 +40223,40 @@
         <v>1991</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.3609523809523795</v>
+        <v>-0.3609523809523805</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.7038095238095242</v>
+        <v>-0.7038095238095244</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.06428571428571546</v>
+        <v>-0.0642857142857147</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.6895238095238094</v>
+        <v>-0.6895238095238098</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.7057142857142854</v>
+        <v>-0.7057142857142856</v>
       </c>
       <c r="G84" t="n">
         <v>-1.229476190476191</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.9880476190476183</v>
+        <v>-0.9880476190476184</v>
       </c>
       <c r="I84" t="n">
-        <v>0.554380952380952</v>
+        <v>0.5543809523809519</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2890952380952371</v>
+        <v>0.2890952380952379</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.3680476190476187</v>
+        <v>-0.3680476190476192</v>
       </c>
       <c r="L84" t="n">
-        <v>-1.504809523809525</v>
+        <v>-1.504809523809524</v>
       </c>
       <c r="M84" t="n">
-        <v>-1.086857142857142</v>
+        <v>-1.086857142857143</v>
       </c>
       <c r="N84" t="n">
         <v>-0.57</v>
@@ -40267,16 +40267,16 @@
         <v>1992</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.4466666666666657</v>
+        <v>-0.4466666666666667</v>
       </c>
       <c r="C85" t="n">
         <v>-1.446666666666667</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.964285714285716</v>
+        <v>-1.964285714285715</v>
       </c>
       <c r="E85" t="n">
-        <v>-2.36095238095238</v>
+        <v>-2.360952380952381</v>
       </c>
       <c r="F85" t="n">
         <v>-2.362857142857143</v>
@@ -40285,19 +40285,19 @@
         <v>-1.472333333333334</v>
       </c>
       <c r="H85" t="n">
-        <v>0.02623809523809609</v>
+        <v>0.02623809523809597</v>
       </c>
       <c r="I85" t="n">
         <v>-1.417047619047619</v>
       </c>
       <c r="J85" t="n">
-        <v>-1.882333333333335</v>
+        <v>-1.882333333333334</v>
       </c>
       <c r="K85" t="n">
-        <v>-1.110904761904762</v>
+        <v>-1.110904761904763</v>
       </c>
       <c r="L85" t="n">
-        <v>0.4237619047619035</v>
+        <v>0.4237619047619042</v>
       </c>
       <c r="M85" t="n">
         <v>-1.115428571428571</v>
@@ -40311,37 +40311,37 @@
         <v>1993</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.489523809523808</v>
+        <v>-1.489523809523809</v>
       </c>
       <c r="C86" t="n">
         <v>-1.860952380952381</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.621428571428573</v>
+        <v>-1.621428571428572</v>
       </c>
       <c r="E86" t="n">
         <v>-1.303809523809524</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4914285714285711</v>
+        <v>-0.4914285714285714</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7990952380952377</v>
+        <v>0.799095238095238</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.1451904761904755</v>
+        <v>-0.1451904761904756</v>
       </c>
       <c r="I86" t="n">
         <v>-1.002761904761905</v>
       </c>
       <c r="J86" t="n">
-        <v>-1.282333333333335</v>
+        <v>-1.282333333333334</v>
       </c>
       <c r="K86" t="n">
-        <v>0.4033809523809526</v>
+        <v>0.4033809523809521</v>
       </c>
       <c r="L86" t="n">
-        <v>-1.504809523809525</v>
+        <v>-1.504809523809524</v>
       </c>
       <c r="M86" t="n">
         <v>-1.315428571428571</v>
@@ -40355,40 +40355,40 @@
         <v>1994</v>
       </c>
       <c r="B87" t="n">
-        <v>0.02476190476190584</v>
+        <v>0.02476190476190483</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2961904761904756</v>
+        <v>0.2961904761904753</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.092857142857144</v>
+        <v>-1.092857142857143</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1676190476190477</v>
+        <v>0.1676190476190474</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.2628571428571431</v>
+        <v>-0.2628571428571433</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.9437619047619054</v>
+        <v>-0.943761904761905</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.673761904761904</v>
+        <v>-0.6737619047619041</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2258095238095235</v>
+        <v>0.2258095238095234</v>
       </c>
       <c r="J87" t="n">
-        <v>-1.010904761904763</v>
+        <v>-1.010904761904762</v>
       </c>
       <c r="K87" t="n">
-        <v>-1.068047619047619</v>
+        <v>-1.06804761904762</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.2905238095238106</v>
+        <v>-0.2905238095238098</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.2868571428571425</v>
+        <v>-0.2868571428571428</v>
       </c>
       <c r="N87" t="n">
         <v>-0.41</v>
@@ -40399,40 +40399,40 @@
         <v>1995</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.4323809523809512</v>
+        <v>-0.4323809523809522</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1247619047619052</v>
+        <v>0.124761904761905</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.03571428571428724</v>
+        <v>-0.03571428571428648</v>
       </c>
       <c r="E88" t="n">
-        <v>1.110476190476191</v>
+        <v>1.11047619047619</v>
       </c>
       <c r="F88" t="n">
-        <v>0.09428571428571431</v>
+        <v>0.09428571428571406</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.3580476190476195</v>
+        <v>-0.3580476190476193</v>
       </c>
       <c r="H88" t="n">
         <v>-1.316619047619046</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.559904761904762</v>
+        <v>-0.5599047619047621</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.2251904761904779</v>
+        <v>-0.2251904761904771</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.4537619047619043</v>
+        <v>-0.4537619047619049</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.7048095238095249</v>
+        <v>-0.7048095238095241</v>
       </c>
       <c r="M88" t="n">
-        <v>0.913142857142858</v>
+        <v>0.9131428571428578</v>
       </c>
       <c r="N88" t="n">
         <v>-0.15</v>
@@ -40443,40 +40443,40 @@
         <v>1996</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2819047619047628</v>
+        <v>0.2819047619047618</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.01809523809523864</v>
+        <v>-0.01809523809523889</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.050000000000002</v>
+        <v>-1.050000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6104761904761907</v>
+        <v>0.6104761904761905</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.777142857142857</v>
+        <v>-0.7771428571428574</v>
       </c>
       <c r="G89" t="n">
         <v>-1.000904761904762</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.4023333333333327</v>
+        <v>-0.4023333333333329</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.9741904761904764</v>
+        <v>-0.9741904761904765</v>
       </c>
       <c r="J89" t="n">
-        <v>1.060523809523808</v>
+        <v>1.060523809523809</v>
       </c>
       <c r="K89" t="n">
-        <v>0.5033809523809525</v>
+        <v>0.5033809523809519</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.9905238095238106</v>
+        <v>-0.9905238095238099</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.7397142857142853</v>
+        <v>-0.7397142857142855</v>
       </c>
       <c r="N89" t="n">
         <v>-0.29</v>
@@ -40487,40 +40487,40 @@
         <v>1997</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.47095238095238</v>
+        <v>-1.470952380952381</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08619047619047571</v>
+        <v>0.08619047619047546</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.9171428571428589</v>
+        <v>-0.9171428571428581</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.8709523809523806</v>
+        <v>-0.8709523809523808</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4271428571428574</v>
+        <v>0.4271428571428572</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5123333333333339</v>
+        <v>-0.5123333333333335</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.7566190476190465</v>
+        <v>-0.7566190476190467</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.3856190476190476</v>
+        <v>-0.3856190476190478</v>
       </c>
       <c r="J90" t="n">
-        <v>-1.040904761904763</v>
+        <v>-1.040904761904762</v>
       </c>
       <c r="K90" t="n">
-        <v>0.1876666666666669</v>
+        <v>0.1876666666666664</v>
       </c>
       <c r="L90" t="n">
-        <v>0.265190476190475</v>
+        <v>0.2651904761904757</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.6025714285714285</v>
+        <v>-0.6025714285714289</v>
       </c>
       <c r="N90" t="n">
         <v>-0.47</v>
@@ -40531,7 +40531,7 @@
         <v>1998</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5090476190476202</v>
+        <v>0.5090476190476192</v>
       </c>
       <c r="C91" t="n">
         <v>2.251904761904762</v>
@@ -40540,31 +40540,31 @@
         <v>1.334285714285713</v>
       </c>
       <c r="E91" t="n">
-        <v>0.409047619047619</v>
+        <v>0.4090476190476188</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3214285714285712</v>
+        <v>0.3214285714285709</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2690952380952377</v>
+        <v>0.2690952380952379</v>
       </c>
       <c r="H91" t="n">
         <v>1.567666666666667</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.3913333333333336</v>
+        <v>-0.3913333333333338</v>
       </c>
       <c r="J91" t="n">
-        <v>0.5576666666666659</v>
+        <v>0.5576666666666666</v>
       </c>
       <c r="K91" t="n">
-        <v>0.8862380952380953</v>
+        <v>0.8862380952380947</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06376190476190351</v>
+        <v>0.06376190476190427</v>
       </c>
       <c r="M91" t="n">
-        <v>0.2674285714285719</v>
+        <v>0.2674285714285717</v>
       </c>
       <c r="N91" t="n">
         <v>0.67</v>
@@ -40575,40 +40575,40 @@
         <v>1999</v>
       </c>
       <c r="B92" t="n">
-        <v>1.507619047619049</v>
+        <v>1.507619047619048</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8933333333333332</v>
+        <v>0.8933333333333329</v>
       </c>
       <c r="D92" t="n">
-        <v>1.775714285714284</v>
+        <v>1.775714285714285</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1933333333333336</v>
+        <v>0.1933333333333334</v>
       </c>
       <c r="F92" t="n">
         <v>1.02</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1962380952380949</v>
+        <v>0.1962380952380951</v>
       </c>
       <c r="H92" t="n">
-        <v>0.309095238095239</v>
+        <v>0.3090952380952389</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.219904761904762</v>
+        <v>-0.2199047619047622</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4862380952380936</v>
+        <v>0.4862380952380944</v>
       </c>
       <c r="K92" t="n">
-        <v>1.243380952380953</v>
+        <v>1.243380952380952</v>
       </c>
       <c r="L92" t="n">
-        <v>0.7780476190476178</v>
+        <v>0.7780476190476185</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.8754285714285712</v>
+        <v>-0.8754285714285714</v>
       </c>
       <c r="N92" t="n">
         <v>0.61</v>
@@ -40619,40 +40619,40 @@
         <v>2000</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.7923809523809509</v>
+        <v>-0.7923809523809519</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.2495238095238097</v>
+        <v>-0.24952380952381</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.4528571428571443</v>
+        <v>-0.4528571428571436</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3076190476190477</v>
+        <v>0.3076190476190475</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4342857142857142</v>
+        <v>0.4342857142857139</v>
       </c>
       <c r="G93" t="n">
-        <v>0.5819523809523804</v>
+        <v>0.5819523809523808</v>
       </c>
       <c r="H93" t="n">
         <v>1.323380952380953</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.1913333333333336</v>
+        <v>-0.1913333333333337</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.02804761904762059</v>
+        <v>-0.02804761904761983</v>
       </c>
       <c r="K93" t="n">
-        <v>0.2576666666666669</v>
+        <v>0.2576666666666664</v>
       </c>
       <c r="L93" t="n">
-        <v>-1.593380952380954</v>
+        <v>-1.593380952380953</v>
       </c>
       <c r="M93" t="n">
-        <v>0.996000000000001</v>
+        <v>0.9960000000000007</v>
       </c>
       <c r="N93" t="n">
         <v>0.05</v>
@@ -40663,40 +40663,40 @@
         <v>2001</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.263809523809523</v>
+        <v>-1.263809523809524</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3790476190476187</v>
+        <v>0.3790476190476184</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1185714285714266</v>
+        <v>0.1185714285714273</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1361904761904762</v>
+        <v>0.1361904761904759</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2200000000000001</v>
+        <v>0.2199999999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08947619047619108</v>
+        <v>-0.08947619047619083</v>
       </c>
       <c r="H94" t="n">
-        <v>-1.290904761904761</v>
+        <v>-1.290904761904762</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5372380952380947</v>
+        <v>0.5372380952380945</v>
       </c>
       <c r="J94" t="n">
-        <v>0.6433809523809507</v>
+        <v>0.6433809523809515</v>
       </c>
       <c r="K94" t="n">
-        <v>1.257666666666667</v>
+        <v>1.257666666666666</v>
       </c>
       <c r="L94" t="n">
-        <v>0.4494761904761896</v>
+        <v>0.4494761904761904</v>
       </c>
       <c r="M94" t="n">
-        <v>0.7674285714285715</v>
+        <v>0.7674285714285711</v>
       </c>
       <c r="N94" t="n">
         <v>0.16</v>
@@ -40707,40 +40707,40 @@
         <v>2002</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.07809523809523686</v>
+        <v>-0.07809523809523787</v>
       </c>
       <c r="C95" t="n">
         <v>-1.106666666666667</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3757142857142841</v>
+        <v>0.3757142857142848</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.2638095238095237</v>
+        <v>-0.2638095238095239</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1771428571428577</v>
+        <v>0.1771428571428574</v>
       </c>
       <c r="G95" t="n">
-        <v>1.167666666666666</v>
+        <v>1.167666666666667</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.005190476190475556</v>
+        <v>-0.005190476190475682</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2658095238095237</v>
+        <v>0.2658095238095236</v>
       </c>
       <c r="J95" t="n">
-        <v>0.6148095238095225</v>
+        <v>0.6148095238095233</v>
       </c>
       <c r="K95" t="n">
         <v>-1.128047619047619</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.7505238095238104</v>
+        <v>-0.7505238095238097</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.1325714285714284</v>
+        <v>-0.1325714285714287</v>
       </c>
       <c r="N95" t="n">
         <v>-0.07000000000000001</v>
@@ -40751,40 +40751,40 @@
         <v>2003</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.6638095238095225</v>
+        <v>-0.6638095238095235</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.8495238095238101</v>
+        <v>-0.8495238095238103</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8899999999999982</v>
+        <v>0.889999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.5638095238095239</v>
+        <v>-0.5638095238095241</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4057142857142854</v>
+        <v>0.4057142857142852</v>
       </c>
       <c r="G96" t="n">
         <v>1.481952380952381</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.933761904761904</v>
+        <v>-0.9337619047619041</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.06276190476190495</v>
+        <v>-0.06276190476190509</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.0566190476190488</v>
+        <v>-0.05661904761904805</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.5994761904761905</v>
+        <v>-0.5994761904761911</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.5648095238095246</v>
+        <v>-0.5648095238095239</v>
       </c>
       <c r="M96" t="n">
-        <v>0.06742857142857187</v>
+        <v>0.06742857142857162</v>
       </c>
       <c r="N96" t="n">
         <v>-0.12</v>
@@ -40798,34 +40798,34 @@
         <v>1.050476190476191</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.378095238095238</v>
+        <v>-1.378095238095239</v>
       </c>
       <c r="D97" t="n">
         <v>-1.252857142857144</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.306666666666666</v>
+        <v>-1.306666666666667</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2342857142857144</v>
+        <v>0.2342857142857141</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8248095238095233</v>
+        <v>0.8248095238095237</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.9480476190476181</v>
+        <v>-0.9480476190476183</v>
       </c>
       <c r="I97" t="n">
         <v>-1.334190476190476</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.7566190476190491</v>
+        <v>-0.7566190476190483</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.2137619047619049</v>
+        <v>-0.2137619047619054</v>
       </c>
       <c r="L97" t="n">
-        <v>0.6209047619047612</v>
+        <v>0.620904761904762</v>
       </c>
       <c r="M97" t="n">
         <v>-2.375428571428571</v>
@@ -40839,40 +40839,40 @@
         <v>2005</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.3495238095238086</v>
+        <v>-0.3495238095238096</v>
       </c>
       <c r="C98" t="n">
         <v>1.193333333333333</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2185714285714269</v>
+        <v>0.2185714285714277</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.6780952380952378</v>
+        <v>-0.678095238095238</v>
       </c>
       <c r="F98" t="n">
-        <v>0.305714285714286</v>
+        <v>0.3057142857142858</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.5609047619047621</v>
+        <v>-0.5609047619047619</v>
       </c>
       <c r="H98" t="n">
         <v>1.037666666666667</v>
       </c>
       <c r="I98" t="n">
-        <v>0.8229523809523809</v>
+        <v>0.8229523809523808</v>
       </c>
       <c r="J98" t="n">
-        <v>0.5776666666666654</v>
+        <v>0.5776666666666662</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.03661904761904745</v>
+        <v>-0.03661904761904796</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1409047619047608</v>
+        <v>0.1409047619047616</v>
       </c>
       <c r="M98" t="n">
-        <v>1.758857142857143</v>
+        <v>1.758857142857142</v>
       </c>
       <c r="N98" t="n">
         <v>0.37</v>
@@ -40883,37 +40883,37 @@
         <v>2006</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1295238095238087</v>
+        <v>-0.1295238095238097</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.04380952380952431</v>
+        <v>-0.04380952380952457</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.390000000000001</v>
+        <v>-1.39</v>
       </c>
       <c r="E99" t="n">
         <v>1.184761904761905</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.1885714285714286</v>
+        <v>-0.1885714285714289</v>
       </c>
       <c r="G99" t="n">
         <v>-1.569476190476191</v>
       </c>
       <c r="H99" t="n">
-        <v>0.04338095238095325</v>
+        <v>0.04338095238095312</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.2284761904761904</v>
+        <v>-0.2284761904761906</v>
       </c>
       <c r="J99" t="n">
-        <v>0.9205238095238081</v>
+        <v>0.9205238095238089</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.2794761904761907</v>
+        <v>-0.2794761904761912</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.1590952380952397</v>
+        <v>-0.1590952380952389</v>
       </c>
       <c r="M99" t="n">
         <v>-2.212571428571429</v>
@@ -40927,40 +40927,40 @@
         <v>2007</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.586666666666666</v>
+        <v>-0.586666666666667</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3438095238095235</v>
+        <v>-0.3438095238095237</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9099999999999981</v>
+        <v>0.9099999999999989</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.5723809523809523</v>
+        <v>-0.5723809523809525</v>
       </c>
       <c r="F100" t="n">
         <v>1.24</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.8980476190476194</v>
+        <v>-0.8980476190476192</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.07090476190476114</v>
+        <v>-0.07090476190476126</v>
       </c>
       <c r="I100" t="n">
-        <v>9.523809523795787e-05</v>
+        <v>9.523809523783098e-05</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.03661904761904898</v>
+        <v>-0.03661904761904822</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.5366190476190474</v>
+        <v>-0.536619047619048</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.301952380952382</v>
+        <v>-0.3019523809523812</v>
       </c>
       <c r="M100" t="n">
-        <v>0.3445714285714295</v>
+        <v>0.3445714285714292</v>
       </c>
       <c r="N100" t="n">
         <v>-0.07000000000000001</v>
@@ -40971,40 +40971,40 @@
         <v>2008</v>
       </c>
       <c r="B101" t="n">
-        <v>1.141904761904764</v>
+        <v>1.141904761904762</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2561904761904764</v>
+        <v>0.2561904761904761</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7099999999999983</v>
+        <v>0.7099999999999991</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2990476190476193</v>
+        <v>0.2990476190476191</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.531428571428571</v>
+        <v>-1.531428571428572</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1305238095238092</v>
+        <v>0.1305238095238094</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2576666666666675</v>
+        <v>0.2576666666666674</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.5856190476190476</v>
+        <v>-0.5856190476190477</v>
       </c>
       <c r="J101" t="n">
-        <v>0.4633809523809513</v>
+        <v>0.4633809523809521</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.1223333333333334</v>
+        <v>-0.1223333333333339</v>
       </c>
       <c r="L101" t="n">
-        <v>0.3694761904761896</v>
+        <v>0.3694761904761903</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0302857142857145</v>
+        <v>0.03028571428571425</v>
       </c>
       <c r="N101" t="n">
         <v>0.12</v>
@@ -41015,16 +41015,16 @@
         <v>2009</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5419047619047633</v>
+        <v>0.5419047619047623</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.3438095238095235</v>
+        <v>-0.3438095238095237</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.6328571428571443</v>
+        <v>-0.6328571428571436</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1133333333333333</v>
+        <v>0.113333333333333</v>
       </c>
       <c r="F102" t="n">
         <v>-2.26</v>
@@ -41033,22 +41033,22 @@
         <v>-1.226619047619048</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.770904761904761</v>
+        <v>-0.7709047619047611</v>
       </c>
       <c r="I102" t="n">
         <v>1.285809523809524</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.07947619047619194</v>
+        <v>-0.07947619047619117</v>
       </c>
       <c r="K102" t="n">
         <v>-1.550904761904762</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.01338095238095376</v>
+        <v>-0.013380952380953</v>
       </c>
       <c r="M102" t="n">
-        <v>-0.4954285714285712</v>
+        <v>-0.4954285714285714</v>
       </c>
       <c r="N102" t="n">
         <v>-0.45</v>
@@ -41059,37 +41059,37 @@
         <v>2010</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.4552380952380941</v>
+        <v>-0.4552380952380951</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4019047619047618</v>
+        <v>0.4019047619047615</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2699999999999983</v>
+        <v>0.2699999999999991</v>
       </c>
       <c r="E103" t="n">
-        <v>0.8590476190476191</v>
+        <v>0.8590476190476188</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1714285714285716</v>
+        <v>0.1714285714285713</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0190952380952377</v>
+        <v>0.01909523809523796</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.4251904761904755</v>
+        <v>-0.4251904761904756</v>
       </c>
       <c r="I103" t="n">
-        <v>0.660095238095238</v>
+        <v>0.6600952380952378</v>
       </c>
       <c r="J103" t="n">
-        <v>0.3662380952380939</v>
+        <v>0.3662380952380947</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.4480476190476188</v>
+        <v>-0.4480476190476192</v>
       </c>
       <c r="L103" t="n">
-        <v>1.100904761904761</v>
+        <v>1.100904761904762</v>
       </c>
       <c r="M103" t="n">
         <v>1.404571428571429</v>
@@ -41103,40 +41103,40 @@
         <v>2011</v>
       </c>
       <c r="B104" t="n">
-        <v>0.15904761904762</v>
+        <v>0.159047619047619</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4447619047619045</v>
+        <v>0.4447619047619042</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.04428571428571614</v>
+        <v>-0.04428571428571537</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.4838095238095238</v>
+        <v>-0.4838095238095241</v>
       </c>
       <c r="F104" t="n">
         <v>1.657142857142857</v>
       </c>
       <c r="G104" t="n">
-        <v>1.147666666666666</v>
+        <v>1.147666666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.1537619047619037</v>
+        <v>-0.1537619047619039</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.9113333333333334</v>
+        <v>-0.9113333333333336</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.8480476190476204</v>
+        <v>-0.8480476190476196</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2662380952380953</v>
+        <v>0.2662380952380948</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.1705238095238104</v>
+        <v>-0.1705238095238096</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0331428571428573</v>
+        <v>0.03314285714285704</v>
       </c>
       <c r="N104" t="n">
         <v>0.09</v>
@@ -41147,40 +41147,40 @@
         <v>2012</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.8552380952380947</v>
+        <v>-0.8552380952380957</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.9552380952380959</v>
+        <v>-0.9552380952380961</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.215714285714288</v>
+        <v>-1.215714285714287</v>
       </c>
       <c r="E105" t="n">
-        <v>0.201904761904762</v>
+        <v>0.2019047619047618</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.9142857142857144</v>
+        <v>-0.9142857142857146</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.9237619047619052</v>
+        <v>-0.923761904761905</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4033809523809528</v>
+        <v>0.4033809523809527</v>
       </c>
       <c r="I105" t="n">
-        <v>0.945809523809524</v>
+        <v>0.9458095238095238</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2376666666666653</v>
+        <v>0.2376666666666661</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.3909047619047618</v>
+        <v>-0.3909047619047623</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.9419523809523821</v>
+        <v>-0.9419523809523813</v>
       </c>
       <c r="M105" t="n">
-        <v>0.9902857142857145</v>
+        <v>0.9902857142857143</v>
       </c>
       <c r="N105" t="n">
         <v>-0.28</v>
@@ -41191,40 +41191,40 @@
         <v>2013</v>
       </c>
       <c r="B106" t="n">
-        <v>0.05904761904762016</v>
+        <v>0.05904761904761914</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.312380952380953</v>
+        <v>-0.3123809523809533</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8699999999999982</v>
+        <v>0.869999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.7161904761904765</v>
+        <v>0.7161904761904763</v>
       </c>
       <c r="F106" t="n">
-        <v>0.01428571428571449</v>
+        <v>0.01428571428571423</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2476666666666663</v>
+        <v>0.2476666666666666</v>
       </c>
       <c r="H106" t="n">
-        <v>0.9748095238095246</v>
+        <v>0.9748095238095245</v>
       </c>
       <c r="I106" t="n">
         <v>1.517238095238095</v>
       </c>
       <c r="J106" t="n">
-        <v>0.3090952380952367</v>
+        <v>0.3090952380952375</v>
       </c>
       <c r="K106" t="n">
-        <v>0.6519523809523812</v>
+        <v>0.6519523809523806</v>
       </c>
       <c r="L106" t="n">
-        <v>1.386619047619046</v>
+        <v>1.386619047619047</v>
       </c>
       <c r="M106" t="n">
-        <v>0.6760000000000007</v>
+        <v>0.6760000000000004</v>
       </c>
       <c r="N106" t="n">
         <v>0.59</v>
@@ -41235,40 +41235,40 @@
         <v>2014</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.098095238095237</v>
+        <v>-1.098095238095238</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.1409523809523814</v>
+        <v>-0.1409523809523817</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.5585714285714302</v>
+        <v>-0.5585714285714294</v>
       </c>
       <c r="E107" t="n">
         <v>1.016190476190477</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1714285714285713</v>
+        <v>0.1714285714285711</v>
       </c>
       <c r="G107" t="n">
         <v>1.476238095238095</v>
       </c>
       <c r="H107" t="n">
-        <v>0.01766666666666758</v>
+        <v>0.01766666666666745</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.3399047619047619</v>
+        <v>-0.339904761904762</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2519523809523795</v>
+        <v>0.2519523809523803</v>
       </c>
       <c r="K107" t="n">
-        <v>-0.03376190476190492</v>
+        <v>-0.03376190476190542</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.3990952380952391</v>
+        <v>-0.3990952380952383</v>
       </c>
       <c r="M107" t="n">
-        <v>0.1902857142857146</v>
+        <v>0.1902857142857144</v>
       </c>
       <c r="N107" t="n">
         <v>0.05</v>
@@ -41279,40 +41279,40 @@
         <v>2015</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9733333333333345</v>
+        <v>0.9733333333333335</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.4695238095238098</v>
+        <v>-0.4695238095238101</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9128571428571419</v>
+        <v>0.9128571428571427</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6019047619047624</v>
+        <v>0.6019047619047621</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.1285714285714286</v>
+        <v>-0.1285714285714289</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01909523809523758</v>
+        <v>0.01909523809523783</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.3823333333333325</v>
+        <v>-0.3823333333333326</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.4399047619047621</v>
+        <v>-0.4399047619047622</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.8766190476190489</v>
+        <v>-0.8766190476190481</v>
       </c>
       <c r="K108" t="n">
-        <v>0.3662380952380954</v>
+        <v>0.3662380952380949</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.1705238095238101</v>
+        <v>-0.1705238095238093</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.2811428571428569</v>
+        <v>-0.2811428571428571</v>
       </c>
       <c r="N108" t="n">
         <v>0.01</v>
@@ -41323,16 +41323,16 @@
         <v>2016</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3590476190476201</v>
+        <v>0.3590476190476191</v>
       </c>
       <c r="C109" t="n">
         <v>2.101904761904761</v>
       </c>
       <c r="D109" t="n">
-        <v>1.169999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7733333333333332</v>
+        <v>0.7733333333333329</v>
       </c>
       <c r="F109" t="n">
         <v>1.8</v>
@@ -41341,22 +41341,22 @@
         <v>1.404809523809524</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5319523809523818</v>
+        <v>0.5319523809523817</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.6541904761904761</v>
+        <v>-0.6541904761904762</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4233809523809511</v>
+        <v>0.4233809523809519</v>
       </c>
       <c r="K109" t="n">
-        <v>0.5662380952380955</v>
+        <v>0.566238095238095</v>
       </c>
       <c r="L109" t="n">
-        <v>0.4009047619047606</v>
+        <v>0.4009047619047613</v>
       </c>
       <c r="M109" t="n">
-        <v>-0.4239999999999998</v>
+        <v>-0.424</v>
       </c>
       <c r="N109" t="n">
         <v>0.7</v>
@@ -41367,37 +41367,37 @@
         <v>2017</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.812380952380951</v>
+        <v>-0.812380952380952</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.1980952380952391</v>
+        <v>-0.1980952380952394</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2128571428571416</v>
+        <v>0.2128571428571424</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5876190476190476</v>
+        <v>0.5876190476190474</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.6428571428571423</v>
+        <v>-0.6428571428571426</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01909523809523758</v>
+        <v>0.01909523809523783</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.153761904761904</v>
+        <v>-0.1537619047619041</v>
       </c>
       <c r="I110" t="n">
         <v>1.117238095238095</v>
       </c>
       <c r="J110" t="n">
-        <v>0.6376666666666654</v>
+        <v>0.6376666666666662</v>
       </c>
       <c r="K110" t="n">
-        <v>0.8519523809523812</v>
+        <v>0.8519523809523807</v>
       </c>
       <c r="L110" t="n">
-        <v>1.086619047619046</v>
+        <v>1.086619047619047</v>
       </c>
       <c r="M110" t="n">
         <v>2.247428571428572</v>
@@ -41411,37 +41411,37 @@
         <v>2018</v>
       </c>
       <c r="B111" t="n">
-        <v>3.05904761904762</v>
+        <v>3.059047619047619</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6876190476190475</v>
+        <v>0.6876190476190472</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14142857142857</v>
+        <v>1.141428571428571</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.04095238095238101</v>
+        <v>-0.04095238095238126</v>
       </c>
       <c r="F111" t="n">
-        <v>0.02857142857142898</v>
+        <v>0.02857142857142872</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.1809047619047623</v>
+        <v>-0.1809047619047621</v>
       </c>
       <c r="H111" t="n">
-        <v>0.8605238095238104</v>
+        <v>0.8605238095238102</v>
       </c>
       <c r="I111" t="n">
-        <v>0.7315238095238097</v>
+        <v>0.7315238095238096</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.0623333333333344</v>
+        <v>-0.06233333333333364</v>
       </c>
       <c r="K111" t="n">
-        <v>0.2233809523809523</v>
+        <v>0.2233809523809518</v>
       </c>
       <c r="L111" t="n">
-        <v>0.500904761904761</v>
+        <v>0.5009047619047617</v>
       </c>
       <c r="M111" t="n">
         <v>1.133142857142857</v>
@@ -41455,40 +41455,40 @@
         <v>2019</v>
       </c>
       <c r="B112" t="n">
-        <v>1.630476190476191</v>
+        <v>1.63047619047619</v>
       </c>
       <c r="C112" t="n">
-        <v>0.459047619047619</v>
+        <v>0.4590476190476188</v>
       </c>
       <c r="D112" t="n">
-        <v>1.769999999999999</v>
+        <v>1.77</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.2409523809523808</v>
+        <v>-0.2409523809523811</v>
       </c>
       <c r="F112" t="n">
         <v>1.4</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.03804761904761974</v>
+        <v>-0.03804761904761949</v>
       </c>
       <c r="H112" t="n">
         <v>1.474809523809524</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.06847619047619029</v>
+        <v>-0.06847619047619043</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.1051904761904779</v>
+        <v>-0.1051904761904771</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.3766190476190473</v>
+        <v>-0.3766190476190478</v>
       </c>
       <c r="L112" t="n">
-        <v>1.558047619047618</v>
+        <v>1.558047619047619</v>
       </c>
       <c r="M112" t="n">
-        <v>0.1331428571428577</v>
+        <v>0.1331428571428575</v>
       </c>
       <c r="N112" t="n">
         <v>0.63</v>
@@ -41499,40 +41499,40 @@
         <v>2020</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.01238095238095102</v>
+        <v>-0.01238095238095203</v>
       </c>
       <c r="C113" t="n">
-        <v>0.844761904761904</v>
+        <v>0.8447619047619038</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.3871428571428585</v>
+        <v>-0.3871428571428578</v>
       </c>
       <c r="E113" t="n">
-        <v>0.08761904761904786</v>
+        <v>0.08761904761904761</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1428571428571431</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G113" t="n">
-        <v>1.219095238095237</v>
+        <v>1.219095238095238</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5890952380952384</v>
+        <v>0.5890952380952383</v>
       </c>
       <c r="I113" t="n">
         <v>1.102952380952381</v>
       </c>
       <c r="J113" t="n">
-        <v>0.4519523809523793</v>
+        <v>0.4519523809523801</v>
       </c>
       <c r="K113" t="n">
         <v>1.051952380952381</v>
       </c>
       <c r="L113" t="n">
-        <v>0.9151904761904748</v>
+        <v>0.9151904761904756</v>
       </c>
       <c r="M113" t="n">
-        <v>-0.009714285714285913</v>
+        <v>-0.009714285714286166</v>
       </c>
       <c r="N113" t="n">
         <v>0.5</v>
@@ -41543,37 +41543,37 @@
         <v>2021</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2733333333333344</v>
+        <v>0.2733333333333334</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.05523809523809601</v>
+        <v>-0.05523809523809626</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4985714285714276</v>
+        <v>0.4985714285714283</v>
       </c>
       <c r="E114" t="n">
-        <v>0.7876190476190479</v>
+        <v>0.7876190476190477</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3571428571428569</v>
       </c>
       <c r="G114" t="n">
         <v>1.819095238095238</v>
       </c>
       <c r="H114" t="n">
-        <v>0.8605238095238105</v>
+        <v>0.8605238095238104</v>
       </c>
       <c r="I114" t="n">
-        <v>0.7886666666666668</v>
+        <v>0.7886666666666667</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1519523809523796</v>
+        <v>0.1519523809523804</v>
       </c>
       <c r="K114" t="n">
         <v>1.066238095238095</v>
       </c>
       <c r="L114" t="n">
-        <v>1.729476190476189</v>
+        <v>1.72947619047619</v>
       </c>
       <c r="M114" t="n">
         <v>1.604571428571429</v>
@@ -41590,37 +41590,37 @@
         <v>1.001904761904763</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4019047619047608</v>
+        <v>0.4019047619047605</v>
       </c>
       <c r="D115" t="n">
-        <v>1.14142857142857</v>
+        <v>1.141428571428571</v>
       </c>
       <c r="E115" t="n">
         <v>1.159047619047619</v>
       </c>
       <c r="F115" t="n">
-        <v>1.428571428571429</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="G115" t="n">
         <v>1.16195238095238</v>
       </c>
       <c r="H115" t="n">
-        <v>1.074809523809525</v>
+        <v>1.074809523809524</v>
       </c>
       <c r="I115" t="n">
         <v>1.360095238095238</v>
       </c>
       <c r="J115" t="n">
-        <v>0.3805238095238079</v>
+        <v>0.3805238095238087</v>
       </c>
       <c r="K115" t="n">
-        <v>0.05195238095238101</v>
+        <v>0.05195238095238049</v>
       </c>
       <c r="L115" t="n">
-        <v>1.843761904761903</v>
+        <v>1.843761904761904</v>
       </c>
       <c r="M115" t="n">
-        <v>1.161714285714286</v>
+        <v>1.161714285714285</v>
       </c>
       <c r="N115" t="n">
         <v>1.01</v>
@@ -41631,37 +41631,37 @@
         <v>2023</v>
       </c>
       <c r="B116" t="n">
-        <v>1.159047619047621</v>
+        <v>1.15904761904762</v>
       </c>
       <c r="C116" t="n">
         <v>1.087619047619047</v>
       </c>
       <c r="D116" t="n">
-        <v>0.06999999999999876</v>
+        <v>0.06999999999999952</v>
       </c>
       <c r="E116" t="n">
-        <v>1.087619047619048</v>
+        <v>1.087619047619047</v>
       </c>
       <c r="F116" t="n">
         <v>2.014285714285714</v>
       </c>
       <c r="G116" t="n">
-        <v>1.347666666666666</v>
+        <v>1.347666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>1.089095238095239</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.5541904761904763</v>
+        <v>-0.5541904761904765</v>
       </c>
       <c r="J116" t="n">
-        <v>1.280523809523808</v>
+        <v>1.280523809523809</v>
       </c>
       <c r="K116" t="n">
-        <v>0.3805238095238097</v>
+        <v>0.3805238095238092</v>
       </c>
       <c r="L116" t="n">
-        <v>0.4151904761904746</v>
+        <v>0.4151904761904753</v>
       </c>
       <c r="M116" t="n">
         <v>1.076</v>
@@ -41675,16 +41675,16 @@
         <v>2024</v>
       </c>
       <c r="B117" t="n">
-        <v>1.301904761904764</v>
+        <v>1.301904761904763</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.1123809523809529</v>
+        <v>-0.1123809523809532</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.9871428571428584</v>
+        <v>-0.9871428571428577</v>
       </c>
       <c r="E117" t="n">
-        <v>0.444761904761905</v>
+        <v>0.4447619047619047</v>
       </c>
       <c r="F117" t="n">
         <v>-1.3</v>
@@ -41693,16 +41693,16 @@
         <v>1.133380952380952</v>
       </c>
       <c r="H117" t="n">
-        <v>0.9462380952380959</v>
+        <v>0.9462380952380958</v>
       </c>
       <c r="I117" t="n">
-        <v>0.845809523809524</v>
+        <v>0.8458095238095239</v>
       </c>
       <c r="J117" t="n">
-        <v>0.6519523809523792</v>
+        <v>0.6519523809523798</v>
       </c>
       <c r="K117" t="n">
-        <v>0.7519523809523808</v>
+        <v>0.7519523809523803</v>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>

--- a/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMean_rounded_all_sites_all.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5576,10 +5576,36 @@
       <c r="K117" t="n">
         <v>0.83</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.29</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.39</v>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -5593,7 +5619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10682,10 +10708,36 @@
       <c r="K117" t="n">
         <v>0.9</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.71</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.4</v>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-2.17</v>
       </c>
     </row>
   </sheetData>
@@ -10699,7 +10751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15868,10 +15920,36 @@
       <c r="K117" t="n">
         <v>0.99</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.03</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.38</v>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.26</v>
       </c>
     </row>
   </sheetData>
@@ -15885,7 +15963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21054,10 +21132,36 @@
       <c r="K117" t="n">
         <v>0.29</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.91</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.33</v>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -21071,7 +21175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26146,11 +26250,31 @@
       <c r="K117" t="n">
         <v>0.8</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.52</v>
+      </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.16</v>
-      </c>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26163,7 +26287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31332,10 +31456,36 @@
       <c r="K117" t="n">
         <v>0.7</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.34</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.27</v>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.86</v>
       </c>
     </row>
   </sheetData>
@@ -31349,7 +31499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36518,10 +36668,36 @@
       <c r="K117" t="n">
         <v>0.75</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.5</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.63</v>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -36535,7 +36711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41704,10 +41880,36 @@
       <c r="K117" t="n">
         <v>0.7519523809523803</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.9580476190476183</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.462555555555556</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.37</v>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.122777777777778</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.12</v>
       </c>
     </row>
   </sheetData>
@@ -41721,7 +41923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46890,10 +47092,36 @@
       <c r="K117" t="n">
         <v>0.75</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.46</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.37</v>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.12</v>
       </c>
     </row>
   </sheetData>
